--- a/results/metrics.xlsx
+++ b/results/metrics.xlsx
@@ -570,25 +570,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.06929267165441522</v>
+        <v>-0.0730989394616246</v>
       </c>
       <c r="C2">
-        <v>-0.2635029818095634</v>
+        <v>-0.3031119329444555</v>
       </c>
       <c r="D2">
-        <v>0.02282193376180702</v>
+        <v>0.02406292780977991</v>
       </c>
       <c r="E2">
-        <v>0.001232405345542734</v>
+        <v>0.001261097437141139</v>
       </c>
       <c r="F2">
-        <v>-0.510398250251157</v>
+        <v>-0.4828831744677865</v>
       </c>
       <c r="G2">
         <v>270</v>
       </c>
       <c r="H2">
-        <v>-361.6468050218999</v>
+        <v>-360.1905890775662</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -599,25 +599,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.06963965327985933</v>
+        <v>-0.07294055048036252</v>
       </c>
       <c r="C3">
-        <v>-0.2666851436642615</v>
+        <v>-0.3081061038202823</v>
       </c>
       <c r="D3">
-        <v>0.02302574683460859</v>
+        <v>0.02412956148224999</v>
       </c>
       <c r="E3">
-        <v>0.001515253462089459</v>
+        <v>0.001625399945748858</v>
       </c>
       <c r="F3">
-        <v>-0.4935964520266811</v>
+        <v>-0.4664519273359987</v>
       </c>
       <c r="G3">
         <v>270</v>
       </c>
       <c r="H3">
-        <v>-356.6804265985695</v>
+        <v>-352.6503276898003</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -628,25 +628,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.08270135022783431</v>
+        <v>-0.08689896625060833</v>
       </c>
       <c r="C4">
-        <v>-0.2927239185426272</v>
+        <v>-0.3422127939300773</v>
       </c>
       <c r="D4">
-        <v>0.02729500264600477</v>
+        <v>0.02866907934607895</v>
       </c>
       <c r="E4">
-        <v>0.001646548745785705</v>
+        <v>0.001695148932733263</v>
       </c>
       <c r="F4">
-        <v>-0.4115819956066391</v>
+        <v>-0.3901601211938959</v>
       </c>
       <c r="G4">
         <v>270</v>
       </c>
       <c r="H4">
-        <v>-386.5894351622725</v>
+        <v>-379.5203441367295</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -657,25 +657,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-0.06587221465259174</v>
+        <v>-0.06890896309501249</v>
       </c>
       <c r="C5">
-        <v>-0.2575513716509464</v>
+        <v>-0.2956731957528614</v>
       </c>
       <c r="D5">
-        <v>0.0217775397008202</v>
+        <v>0.0227926267446579</v>
       </c>
       <c r="E5">
-        <v>0.001425442079734912</v>
+        <v>0.001525548413753737</v>
       </c>
       <c r="F5">
-        <v>-0.5260115918764918</v>
+        <v>-0.4981932147783055</v>
       </c>
       <c r="G5">
         <v>270</v>
       </c>
       <c r="H5">
-        <v>-347.486596300285</v>
+        <v>-3023.544378142197</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.06844226154136024</v>
+        <v>-0.07196637499426983</v>
       </c>
       <c r="C6">
-        <v>-0.2519527382173116</v>
+        <v>-0.2906538954668946</v>
       </c>
       <c r="D6">
-        <v>0.02252210416413165</v>
+        <v>0.02366719626128641</v>
       </c>
       <c r="E6">
-        <v>0.001156272349516063</v>
+        <v>0.001170759488771582</v>
       </c>
       <c r="F6">
-        <v>-0.5205733873690579</v>
+        <v>-0.4947743191406135</v>
       </c>
       <c r="G6">
         <v>270</v>
       </c>
       <c r="H6">
-        <v>-373.2577783667269</v>
+        <v>-593.8467902961809</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -715,25 +715,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.07292829359695341</v>
+        <v>-0.07665389607313233</v>
       </c>
       <c r="C7">
-        <v>-0.2770030118416512</v>
+        <v>-0.3218146572418988</v>
       </c>
       <c r="D7">
-        <v>0.02404545999319017</v>
+        <v>0.0252428704753464</v>
       </c>
       <c r="E7">
-        <v>0.001377763690668537</v>
+        <v>0.001352437770192642</v>
       </c>
       <c r="F7">
-        <v>-0.4783820612084778</v>
+        <v>-0.45669301539947</v>
       </c>
       <c r="G7">
         <v>270</v>
       </c>
       <c r="H7">
-        <v>-355.2088784332922</v>
+        <v>-625.2795742278431</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
@@ -744,25 +744,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.07009943118412831</v>
+        <v>-0.07353234457744806</v>
       </c>
       <c r="C8">
-        <v>-0.2751205198931837</v>
+        <v>-0.3181345181765573</v>
       </c>
       <c r="D8">
-        <v>0.02313568256858093</v>
+        <v>0.02425333994413989</v>
       </c>
       <c r="E8">
-        <v>0.001395202514544012</v>
+        <v>0.001416110050403223</v>
       </c>
       <c r="F8">
-        <v>-0.4964399842678733</v>
+        <v>-0.4727006829128991</v>
       </c>
       <c r="G8">
         <v>270</v>
       </c>
       <c r="H8">
-        <v>-339.9592635152264</v>
+        <v>-339.4816621524694</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
@@ -773,25 +773,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0782996654486855</v>
+        <v>-0.08176468311721674</v>
       </c>
       <c r="C9">
-        <v>-0.2955549894958066</v>
+        <v>-0.3463416326229351</v>
       </c>
       <c r="D9">
-        <v>0.02593183072095703</v>
+        <v>0.02705001074596552</v>
       </c>
       <c r="E9">
-        <v>0.001835715603290886</v>
+        <v>0.001826133972152425</v>
       </c>
       <c r="F9">
-        <v>-0.4259230642246894</v>
+        <v>-0.4086706854418973</v>
       </c>
       <c r="G9">
         <v>310</v>
       </c>
       <c r="H9">
-        <v>-386.433806523391</v>
+        <v>-383.5036839703959</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -802,25 +802,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.07191993221981707</v>
+        <v>-0.07523087635946124</v>
       </c>
       <c r="C10">
-        <v>-0.2734534188475832</v>
+        <v>-0.3121804320759423</v>
       </c>
       <c r="D10">
-        <v>0.023670480446323</v>
+        <v>0.02477093668614515</v>
       </c>
       <c r="E10">
-        <v>0.001227351157923768</v>
+        <v>0.001317072442101988</v>
       </c>
       <c r="F10">
-        <v>-0.492314859152059</v>
+        <v>-0.4668215864958629</v>
       </c>
       <c r="G10">
         <v>270</v>
       </c>
       <c r="H10">
-        <v>-379.1241809036156</v>
+        <v>-373.0320394548273</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
@@ -831,25 +831,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.07286203680572523</v>
+        <v>-0.07701942719346622</v>
       </c>
       <c r="C11">
-        <v>-0.2872012213192617</v>
+        <v>-0.3315179416415865</v>
       </c>
       <c r="D11">
-        <v>0.02411144159963584</v>
+        <v>0.0254523159675253</v>
       </c>
       <c r="E11">
-        <v>0.001647918973747971</v>
+        <v>0.001634141876171461</v>
       </c>
       <c r="F11">
-        <v>-0.465868512455038</v>
+        <v>-0.4418670011442133</v>
       </c>
       <c r="G11">
         <v>270</v>
       </c>
       <c r="H11">
-        <v>-369.4841931630853</v>
+        <v>-358.203664881103</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -860,25 +860,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.07404565308812516</v>
+        <v>-0.07783935591395752</v>
       </c>
       <c r="C12">
-        <v>-0.2761603832187978</v>
+        <v>-0.3166826007558953</v>
       </c>
       <c r="D12">
-        <v>0.02437672729720104</v>
+        <v>0.02562775599130851</v>
       </c>
       <c r="E12">
-        <v>0.001284097124328264</v>
+        <v>0.00135636358496975</v>
       </c>
       <c r="F12">
-        <v>-0.4757235513694288</v>
+        <v>-0.449681073280684</v>
       </c>
       <c r="G12">
         <v>270</v>
       </c>
       <c r="H12">
-        <v>-360.5281534428825</v>
+        <v>-359.1376077079768</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
@@ -889,25 +889,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06443590363121909</v>
+        <v>-0.06770009180192493</v>
       </c>
       <c r="C13">
-        <v>-0.2429848781854032</v>
+        <v>-0.2797984465292734</v>
       </c>
       <c r="D13">
-        <v>0.02123726951887287</v>
+        <v>0.02231030639763969</v>
       </c>
       <c r="E13">
-        <v>0.001192192730794854</v>
+        <v>0.001243937788563647</v>
       </c>
       <c r="F13">
-        <v>-0.5503761989616796</v>
+        <v>-0.5215859616156728</v>
       </c>
       <c r="G13">
         <v>270</v>
       </c>
       <c r="H13">
-        <v>-424.7065294418195</v>
+        <v>-385.3936546701054</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -918,25 +918,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.06717179761313841</v>
+        <v>-0.07070921036311928</v>
       </c>
       <c r="C14">
-        <v>-0.2547754064815038</v>
+        <v>-0.2973979978766177</v>
       </c>
       <c r="D14">
-        <v>0.02210958606251401</v>
+        <v>0.02329487097205583</v>
       </c>
       <c r="E14">
-        <v>0.001151959513239969</v>
+        <v>0.001277352482738576</v>
       </c>
       <c r="F14">
-        <v>-0.5304812518205615</v>
+        <v>-0.4981065547045717</v>
       </c>
       <c r="G14">
         <v>270</v>
       </c>
       <c r="H14">
-        <v>-1744.454649741957</v>
+        <v>-365.1966303507524</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -947,25 +947,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.06392810958804374</v>
+        <v>-0.06730678658888978</v>
       </c>
       <c r="C15">
-        <v>-0.2430905838442414</v>
+        <v>-0.2805349990666725</v>
       </c>
       <c r="D15">
-        <v>0.02109398757262267</v>
+        <v>0.02220953024443297</v>
       </c>
       <c r="E15">
-        <v>0.001257212274777232</v>
+        <v>0.001325821277268082</v>
       </c>
       <c r="F15">
-        <v>-0.5510322830200868</v>
+        <v>-0.5202658048359711</v>
       </c>
       <c r="G15">
         <v>270</v>
       </c>
       <c r="H15">
-        <v>-419.2180285802896</v>
+        <v>-1207.464217962796</v>
       </c>
       <c r="I15" t="s">
         <v>4</v>
@@ -976,25 +976,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.06380862001216425</v>
+        <v>-0.06739347848658561</v>
       </c>
       <c r="C16">
-        <v>-0.253618728260094</v>
+        <v>-0.2930667486866567</v>
       </c>
       <c r="D16">
-        <v>0.02104409940473454</v>
+        <v>0.02223560543116551</v>
       </c>
       <c r="E16">
-        <v>0.001222535822553333</v>
+        <v>0.001319707764002592</v>
       </c>
       <c r="F16">
-        <v>-0.553986386309344</v>
+        <v>-0.5199306435214194</v>
       </c>
       <c r="G16">
         <v>270</v>
       </c>
       <c r="H16">
-        <v>-368.2965635330889</v>
+        <v>-374.2455445087862</v>
       </c>
       <c r="I16" t="s">
         <v>4</v>
@@ -1005,19 +1005,19 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>-0.06455327775606678</v>
+        <v>-0.0679354761716241</v>
       </c>
       <c r="C17">
-        <v>-0.2345207947093518</v>
+        <v>-0.2706351126400577</v>
       </c>
       <c r="D17">
-        <v>0.0213433604396859</v>
+        <v>0.02244591293096714</v>
       </c>
       <c r="E17">
-        <v>0.00140266419683458</v>
+        <v>0.001427609109080435</v>
       </c>
       <c r="F17">
-        <v>-0.5377792424261367</v>
+        <v>-0.5102519701943317</v>
       </c>
       <c r="G17">
         <v>270</v>
@@ -1034,25 +1034,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>-0.05713857137512679</v>
+        <v>-0.05934636864025145</v>
       </c>
       <c r="C18">
-        <v>-0.236562311759503</v>
+        <v>-0.2707654418759345</v>
       </c>
       <c r="D18">
-        <v>0.01888684480034256</v>
+        <v>0.01961013181061066</v>
       </c>
       <c r="E18">
-        <v>0.001226166588469373</v>
+        <v>0.001253494209106708</v>
       </c>
       <c r="F18">
-        <v>-0.6170704498104462</v>
+        <v>-0.5929172892922059</v>
       </c>
       <c r="G18">
         <v>270</v>
       </c>
       <c r="H18">
-        <v>-328.7258790401002</v>
+        <v>-325.4614331721489</v>
       </c>
       <c r="I18" t="s">
         <v>4</v>
@@ -1063,25 +1063,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.07130891923629057</v>
+        <v>-0.07478101973730567</v>
       </c>
       <c r="C19">
-        <v>-0.2619893055669058</v>
+        <v>-0.302565798037717</v>
       </c>
       <c r="D19">
-        <v>0.02355310186270616</v>
+        <v>0.02472025698619451</v>
       </c>
       <c r="E19">
-        <v>0.00147563705030534</v>
+        <v>0.001610317018203148</v>
       </c>
       <c r="F19">
-        <v>-0.4842268088973105</v>
+        <v>-0.4559161093271741</v>
       </c>
       <c r="G19">
         <v>255</v>
       </c>
       <c r="H19">
-        <v>-443.470882700853</v>
+        <v>-425.532628158836</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06276489374781058</v>
+        <v>-0.06588576521154099</v>
       </c>
       <c r="C20">
-        <v>-0.2502619478297643</v>
+        <v>-0.287946512038645</v>
       </c>
       <c r="D20">
-        <v>0.02070167717910114</v>
+        <v>0.02172577012395538</v>
       </c>
       <c r="E20">
-        <v>0.001208097862904765</v>
+        <v>0.001251911501881364</v>
       </c>
       <c r="F20">
-        <v>-0.5638471917529388</v>
+        <v>-0.5352523218596198</v>
       </c>
       <c r="G20">
         <v>270</v>
       </c>
       <c r="H20">
-        <v>-415.301131609797</v>
+        <v>-835.5198173267527</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -1121,25 +1121,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.05569451380869184</v>
+        <v>-0.0581926336721198</v>
       </c>
       <c r="C21">
-        <v>-0.2234828022032339</v>
+        <v>-0.256269956506236</v>
       </c>
       <c r="D21">
-        <v>0.01838400904830767</v>
+        <v>0.01919489174579572</v>
       </c>
       <c r="E21">
-        <v>0.001116344869269924</v>
+        <v>0.001124040914132087</v>
       </c>
       <c r="F21">
-        <v>-0.6399222011223868</v>
+        <v>-0.612487928897011</v>
       </c>
       <c r="G21">
         <v>270</v>
       </c>
       <c r="H21">
-        <v>-410.3958817247145</v>
+        <v>-339.5107914935739</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
@@ -1150,25 +1150,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.07649979500481996</v>
+        <v>-0.08175369147528333</v>
       </c>
       <c r="C22">
-        <v>-0.2629970947313572</v>
+        <v>-0.3087892536233707</v>
       </c>
       <c r="D22">
-        <v>0.0251792257675605</v>
+        <v>0.02692488789558375</v>
       </c>
       <c r="E22">
-        <v>0.001309861906388459</v>
+        <v>0.001450466939596337</v>
       </c>
       <c r="F22">
-        <v>-0.4595382957896813</v>
+        <v>-0.4245222304972084</v>
       </c>
       <c r="G22">
         <v>270</v>
       </c>
       <c r="H22">
-        <v>-1055.468824007117</v>
+        <v>-1317.588460829839</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
@@ -1179,25 +1179,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.07223830539160592</v>
+        <v>-0.07536388155876461</v>
       </c>
       <c r="C23">
-        <v>-0.2748314435507313</v>
+        <v>-0.3170617841495669</v>
       </c>
       <c r="D23">
-        <v>0.02387591488650676</v>
+        <v>0.02490111734525368</v>
       </c>
       <c r="E23">
-        <v>0.001543818129990266</v>
+        <v>0.001586355721214039</v>
       </c>
       <c r="F23">
-        <v>-0.4748242037557897</v>
+        <v>-0.4535669836460401</v>
       </c>
       <c r="G23">
         <v>270</v>
       </c>
       <c r="H23">
-        <v>-327.0937143120224</v>
+        <v>-337.9179359421999</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
@@ -1208,25 +1208,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.08052533568630471</v>
+        <v>-0.08486703453364552</v>
       </c>
       <c r="C24">
-        <v>-0.2939176254368622</v>
+        <v>-0.3410217618707296</v>
       </c>
       <c r="D24">
-        <v>0.02677902467739594</v>
+        <v>0.0281647943128519</v>
       </c>
       <c r="E24">
-        <v>0.002228071499449171</v>
+        <v>0.002168722748500773</v>
       </c>
       <c r="F24">
-        <v>-0.3977967470361044</v>
+        <v>-0.3803314711774085</v>
       </c>
       <c r="G24">
         <v>277</v>
       </c>
       <c r="H24">
-        <v>-358.4609279822686</v>
+        <v>-358.8238856425289</v>
       </c>
       <c r="I24" t="s">
         <v>4</v>
@@ -1237,25 +1237,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07286267564456417</v>
+        <v>-0.07645315401021935</v>
       </c>
       <c r="C25">
-        <v>-0.2833661685661306</v>
+        <v>-0.322675156174875</v>
       </c>
       <c r="D25">
-        <v>0.02407909112089674</v>
+        <v>0.02525902192264685</v>
       </c>
       <c r="E25">
-        <v>0.001547309640389435</v>
+        <v>0.001603091557344967</v>
       </c>
       <c r="F25">
-        <v>-0.470672697222026</v>
+        <v>-0.4464776538897003</v>
       </c>
       <c r="G25">
         <v>270</v>
       </c>
       <c r="H25">
-        <v>-343.8828224006776</v>
+        <v>-341.7485057658134</v>
       </c>
       <c r="I25" t="s">
         <v>4</v>
@@ -1266,19 +1266,19 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.07946985771958393</v>
+        <v>-0.08369923216402708</v>
       </c>
       <c r="C26">
-        <v>-0.2823226033146715</v>
+        <v>-0.3278100478275314</v>
       </c>
       <c r="D26">
-        <v>0.02615021087455581</v>
+        <v>0.02753363490280653</v>
       </c>
       <c r="E26">
-        <v>0.001340368738069348</v>
+        <v>0.001386095918855357</v>
       </c>
       <c r="F26">
-        <v>-0.4413085509025945</v>
+        <v>-0.4174742828775518</v>
       </c>
       <c r="G26">
         <v>270</v>
@@ -1295,25 +1295,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.07613490874288376</v>
+        <v>-0.07994297837836306</v>
       </c>
       <c r="C27">
-        <v>-0.2851784680496742</v>
+        <v>-0.3293814423245884</v>
       </c>
       <c r="D27">
-        <v>0.02512900823588156</v>
+        <v>0.02636172218887807</v>
       </c>
       <c r="E27">
-        <v>0.001519564329594507</v>
+        <v>0.001520867175928807</v>
       </c>
       <c r="F27">
-        <v>-0.4521115982245517</v>
+        <v>-0.430920755009728</v>
       </c>
       <c r="G27">
         <v>270</v>
       </c>
       <c r="H27">
-        <v>-402.9660983786064</v>
+        <v>-400.7388424239758</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
@@ -1324,25 +1324,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.0611632895862726</v>
+        <v>-0.06430238331616556</v>
       </c>
       <c r="C28">
-        <v>-0.2298627485941414</v>
+        <v>-0.2672998424720773</v>
       </c>
       <c r="D28">
-        <v>0.02019357726097117</v>
+        <v>0.02122412347507522</v>
       </c>
       <c r="E28">
-        <v>0.001239555242676295</v>
+        <v>0.001285088716606507</v>
       </c>
       <c r="F28">
-        <v>-0.5764766198577284</v>
+        <v>-0.5463401917128755</v>
       </c>
       <c r="G28">
         <v>270</v>
       </c>
       <c r="H28">
-        <v>-404.0580932141849</v>
+        <v>-323.3721815173124</v>
       </c>
       <c r="I28" t="s">
         <v>4</v>
@@ -1353,25 +1353,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.08751464874075288</v>
+        <v>-0.09241687371316532</v>
       </c>
       <c r="C29">
-        <v>-0.3128178634232431</v>
+        <v>-0.3643174005776038</v>
       </c>
       <c r="D29">
-        <v>0.02903693990290351</v>
+        <v>0.0306171671882581</v>
       </c>
       <c r="E29">
-        <v>0.002216241019453005</v>
+        <v>0.002197285455331034</v>
       </c>
       <c r="F29">
-        <v>-0.3672714625275461</v>
+        <v>-0.3489347947801966</v>
       </c>
       <c r="G29">
         <v>270</v>
       </c>
       <c r="H29">
-        <v>-427.4916650808254</v>
+        <v>-444.133403950634</v>
       </c>
       <c r="I29" t="s">
         <v>4</v>
@@ -1382,25 +1382,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.06483405119364261</v>
+        <v>-0.06862387879294585</v>
       </c>
       <c r="C30">
-        <v>-0.2388708581492965</v>
+        <v>-0.2780160763481493</v>
       </c>
       <c r="D30">
-        <v>0.02136258444625254</v>
+        <v>0.0226153149775322</v>
       </c>
       <c r="E30">
-        <v>0.001181297405405066</v>
+        <v>0.00126269816478496</v>
       </c>
       <c r="F30">
-        <v>-0.5476576595377299</v>
+        <v>-0.5137218850002347</v>
       </c>
       <c r="G30">
         <v>270</v>
       </c>
       <c r="H30">
-        <v>-349.3070470265321</v>
+        <v>-1913.002118784036</v>
       </c>
       <c r="I30" t="s">
         <v>4</v>
@@ -1411,25 +1411,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.07422073241606741</v>
+        <v>-0.07806433387800338</v>
       </c>
       <c r="C31">
-        <v>-0.2661093490882729</v>
+        <v>-0.3098155709199116</v>
       </c>
       <c r="D31">
-        <v>0.02437349690287966</v>
+        <v>0.0256381145264573</v>
       </c>
       <c r="E31">
-        <v>0.001099035127492471</v>
+        <v>0.001163395900885216</v>
       </c>
       <c r="F31">
-        <v>-0.4833793576838948</v>
+        <v>-0.4570259834021707</v>
       </c>
       <c r="G31">
         <v>270</v>
       </c>
       <c r="H31">
-        <v>-330.6550812202328</v>
+        <v>-1690.44322961619</v>
       </c>
       <c r="I31" t="s">
         <v>4</v>
@@ -1440,25 +1440,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07806155163186779</v>
+        <v>-0.08197158932921922</v>
       </c>
       <c r="C32">
-        <v>-0.2827152396567356</v>
+        <v>-0.3273331137955154</v>
       </c>
       <c r="D32">
-        <v>0.02570120208102319</v>
+        <v>0.02698545341970693</v>
       </c>
       <c r="E32">
-        <v>0.00136113334625757</v>
+        <v>0.001419730624945863</v>
       </c>
       <c r="F32">
-        <v>-0.448210438653563</v>
+        <v>-0.424708438347057</v>
       </c>
       <c r="G32">
         <v>270</v>
       </c>
       <c r="H32">
-        <v>-404.6005041306184</v>
+        <v>-552.9427592799111</v>
       </c>
       <c r="I32" t="s">
         <v>4</v>
@@ -1469,25 +1469,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.08519117946972377</v>
+        <v>-0.08947178600050687</v>
       </c>
       <c r="C33">
-        <v>-0.3025867062991623</v>
+        <v>-0.3476476328714483</v>
       </c>
       <c r="D33">
-        <v>0.02803574190762815</v>
+        <v>0.02944641832550332</v>
       </c>
       <c r="E33">
-        <v>0.001445775900611573</v>
+        <v>0.001524487209895429</v>
       </c>
       <c r="F33">
-        <v>-0.4078688034003474</v>
+        <v>-0.3856561796239205</v>
       </c>
       <c r="G33">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H33">
-        <v>-392.0921488736528</v>
+        <v>-398.8158807939857</v>
       </c>
       <c r="I33" t="s">
         <v>4</v>
@@ -1498,25 +1498,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0778445577782283</v>
+        <v>-0.08202238820298291</v>
       </c>
       <c r="C34">
-        <v>-0.2759237442109254</v>
+        <v>-0.3181650501429039</v>
       </c>
       <c r="D34">
-        <v>0.02561777073458623</v>
+        <v>0.02697579346389103</v>
       </c>
       <c r="E34">
-        <v>0.001320304957790596</v>
+        <v>0.001339080243643738</v>
       </c>
       <c r="F34">
-        <v>-0.4512639123403008</v>
+        <v>-0.4278502568134775</v>
       </c>
       <c r="G34">
         <v>270</v>
       </c>
       <c r="H34">
-        <v>-346.6964195921356</v>
+        <v>-356.9478395356224</v>
       </c>
       <c r="I34" t="s">
         <v>4</v>
@@ -1527,25 +1527,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.08144081949488757</v>
+        <v>-0.08625276371843005</v>
       </c>
       <c r="C35">
-        <v>-0.2884812429823397</v>
+        <v>-0.3335475031007032</v>
       </c>
       <c r="D35">
-        <v>0.02676957581063027</v>
+        <v>0.02834498164741384</v>
       </c>
       <c r="E35">
-        <v>0.001283388497530583</v>
+        <v>0.001339814286141993</v>
       </c>
       <c r="F35">
-        <v>-0.4332265848897368</v>
+        <v>-0.4071572972716256</v>
       </c>
       <c r="G35">
         <v>270</v>
       </c>
       <c r="H35">
-        <v>-389.0358603647045</v>
+        <v>-393.0737298644308</v>
       </c>
       <c r="I35" t="s">
         <v>4</v>
@@ -1556,25 +1556,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.1226323104654438</v>
+        <v>-0.1258346920673352</v>
       </c>
       <c r="C36">
-        <v>-0.3489816158694442</v>
+        <v>-0.4348098150184742</v>
       </c>
       <c r="D36">
-        <v>0.04085305307696094</v>
+        <v>0.04180908355631254</v>
       </c>
       <c r="E36">
-        <v>0.003613113958569376</v>
+        <v>0.003365088629651299</v>
       </c>
       <c r="F36">
-        <v>-0.2268512570869251</v>
+        <v>-0.2275962773125371</v>
       </c>
       <c r="G36">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="H36">
-        <v>-490.4065925398293</v>
+        <v>-234.6338816311783</v>
       </c>
       <c r="I36" t="s">
         <v>4</v>
@@ -1585,25 +1585,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>-0.08355889649718495</v>
+        <v>-0.08810373077121136</v>
       </c>
       <c r="C37">
-        <v>-0.3004629171474686</v>
+        <v>-0.3478043356476777</v>
       </c>
       <c r="D37">
-        <v>0.02754221921825784</v>
+        <v>0.02901814480389265</v>
       </c>
       <c r="E37">
-        <v>0.001552959114631437</v>
+        <v>0.001569077766833402</v>
       </c>
       <c r="F37">
-        <v>-0.4112857137806897</v>
+        <v>-0.3898113650796188</v>
       </c>
       <c r="G37">
         <v>270</v>
       </c>
       <c r="H37">
-        <v>-392.4752295897001</v>
+        <v>-433.963799794004</v>
       </c>
       <c r="I37" t="s">
         <v>4</v>
@@ -1614,25 +1614,25 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06616838989260099</v>
+        <v>-0.06931260718340515</v>
       </c>
       <c r="C38">
-        <v>-0.2570169394777637</v>
+        <v>-0.2962734360101153</v>
       </c>
       <c r="D38">
-        <v>0.02189042474999374</v>
+        <v>0.02295054420696976</v>
       </c>
       <c r="E38">
-        <v>0.001478107865565068</v>
+        <v>0.001609905969105426</v>
       </c>
       <c r="F38">
-        <v>-0.5208931608033343</v>
+        <v>-0.4910896375341129</v>
       </c>
       <c r="G38">
         <v>270</v>
       </c>
       <c r="H38">
-        <v>-595.1323306454934</v>
+        <v>-354.0551400835641</v>
       </c>
       <c r="I38" t="s">
         <v>4</v>
@@ -1643,25 +1643,25 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.08790753603612445</v>
+        <v>-0.09247590382917337</v>
       </c>
       <c r="C39">
-        <v>-0.3019783620558632</v>
+        <v>-0.3510828746478599</v>
       </c>
       <c r="D39">
-        <v>0.02899557999795348</v>
+        <v>0.0304992020461354</v>
       </c>
       <c r="E39">
-        <v>0.001695542009624715</v>
+        <v>0.001773715646133743</v>
       </c>
       <c r="F39">
-        <v>-0.3857532215627891</v>
+        <v>-0.3641723066059848</v>
       </c>
       <c r="G39">
         <v>274</v>
       </c>
       <c r="H39">
-        <v>-885.0587435037543</v>
+        <v>-439.5737454435393</v>
       </c>
       <c r="I39" t="s">
         <v>4</v>
@@ -1672,25 +1672,25 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.06194560454249631</v>
+        <v>-0.06551941625917446</v>
       </c>
       <c r="C40">
-        <v>-0.2359406977173819</v>
+        <v>-0.2775372784424193</v>
       </c>
       <c r="D40">
-        <v>0.02036292216696997</v>
+        <v>0.02153294712258578</v>
       </c>
       <c r="E40">
-        <v>0.000980555385854969</v>
+        <v>0.001022392586043519</v>
       </c>
       <c r="F40">
-        <v>-0.584401635555268</v>
+        <v>-0.5507043579016285</v>
       </c>
       <c r="G40">
         <v>270</v>
       </c>
       <c r="H40">
-        <v>-392.7860620161762</v>
+        <v>-373.9688335589636</v>
       </c>
       <c r="I40" t="s">
         <v>4</v>
@@ -1701,25 +1701,25 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.06372282638260018</v>
+        <v>-0.06720376976973541</v>
       </c>
       <c r="C41">
-        <v>-0.2373790435545086</v>
+        <v>-0.2751040350601141</v>
       </c>
       <c r="D41">
-        <v>0.0210137058005814</v>
+        <v>0.02214536749993678</v>
       </c>
       <c r="E41">
-        <v>0.001214406154662405</v>
+        <v>0.001230560310527995</v>
       </c>
       <c r="F41">
-        <v>-0.5551745304215526</v>
+        <v>-0.5260748142663294</v>
       </c>
       <c r="G41">
         <v>270</v>
       </c>
       <c r="H41">
-        <v>-412.7729329149806</v>
+        <v>-430.9039142824209</v>
       </c>
       <c r="I41" t="s">
         <v>4</v>
@@ -1730,25 +1730,25 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.073510630088514</v>
+        <v>-0.07755393793818477</v>
       </c>
       <c r="C42">
-        <v>-0.2749943890800771</v>
+        <v>-0.3175359175279881</v>
       </c>
       <c r="D42">
-        <v>0.02413022807392505</v>
+        <v>0.02545316065047238</v>
       </c>
       <c r="E42">
-        <v>0.00105738026072679</v>
+        <v>0.00110224139798438</v>
       </c>
       <c r="F42">
-        <v>-0.4899787978782607</v>
+        <v>-0.4627495645305593</v>
       </c>
       <c r="G42">
         <v>270</v>
       </c>
       <c r="H42">
-        <v>-493.1645220317827</v>
+        <v>-717.5979502546505</v>
       </c>
       <c r="I42" t="s">
         <v>4</v>
@@ -1759,25 +1759,25 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.06929267165441522</v>
+        <v>-0.0730989394616246</v>
       </c>
       <c r="C43">
-        <v>-0.2635029818095634</v>
+        <v>-0.3031119329444555</v>
       </c>
       <c r="D43">
-        <v>0.02282193376180702</v>
+        <v>0.02406292780977991</v>
       </c>
       <c r="E43">
-        <v>0.001232405345542734</v>
+        <v>0.001261097437141139</v>
       </c>
       <c r="F43">
-        <v>-0.510398250251157</v>
+        <v>-0.4828831744677865</v>
       </c>
       <c r="G43">
         <v>270</v>
       </c>
       <c r="H43">
-        <v>-361.6468050218999</v>
+        <v>-360.1905890775662</v>
       </c>
       <c r="I43" t="s">
         <v>4</v>
@@ -1788,25 +1788,25 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.07907044373506567</v>
+        <v>-0.0832271196128449</v>
       </c>
       <c r="C44">
-        <v>-0.2969844645757616</v>
+        <v>-0.3426798290637493</v>
       </c>
       <c r="D44">
-        <v>0.02605361224949952</v>
+        <v>0.0274258861432575</v>
       </c>
       <c r="E44">
-        <v>0.001441270530707371</v>
+        <v>0.001525239772329537</v>
       </c>
       <c r="F44">
-        <v>-0.4390719323163804</v>
+        <v>-0.4140409747664243</v>
       </c>
       <c r="G44">
         <v>270</v>
       </c>
       <c r="H44">
-        <v>-358.2835850554748</v>
+        <v>-3680.955327030732</v>
       </c>
       <c r="I44" t="s">
         <v>4</v>
@@ -1817,25 +1817,25 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>-0.1083956060061853</v>
+        <v>-0.1056602560581522</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="D45">
-        <v>0.035238263105729</v>
+        <v>0.03420942111926081</v>
       </c>
       <c r="E45">
-        <v>0.0004988130563798225</v>
+        <v>5.480225988700818E-05</v>
       </c>
       <c r="F45">
-        <v>-0.3513756427604398</v>
+        <v>-0.3749223963865476</v>
       </c>
       <c r="G45">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="H45">
-        <v>-257.051282051282</v>
+        <v>-732.3943661971921</v>
       </c>
       <c r="I45" t="s">
         <v>4</v>
@@ -1846,25 +1846,25 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>-0.0830883646937145</v>
+        <v>-0.09345983887319209</v>
       </c>
       <c r="C46">
-        <v>-0.1794297219719937</v>
+        <v>-0.3039595101965676</v>
       </c>
       <c r="D46">
-        <v>0.03038140008973924</v>
+        <v>0.03084001296238299</v>
       </c>
       <c r="E46">
-        <v>0.01079721937020738</v>
+        <v>0.001842965505797919</v>
       </c>
       <c r="F46">
-        <v>-0.06857686046579257</v>
+        <v>-0.3579024079069663</v>
       </c>
       <c r="G46">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="H46">
-        <v>-265.2304036439509</v>
+        <v>-397.9752970321281</v>
       </c>
       <c r="I46" t="s">
         <v>52</v>
@@ -1875,25 +1875,25 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>-0.08228226540911376</v>
+        <v>-0.09413368552720014</v>
       </c>
       <c r="C47">
-        <v>-0.2003528800215536</v>
+        <v>-0.3241504964181013</v>
       </c>
       <c r="D47">
-        <v>0.03038745900629398</v>
+        <v>0.03124004437811726</v>
       </c>
       <c r="E47">
-        <v>0.01162204211448595</v>
+        <v>0.002405308856174018</v>
       </c>
       <c r="F47">
-        <v>-0.04141966230773687</v>
+        <v>-0.3353187153626617</v>
       </c>
       <c r="G47">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H47">
-        <v>-227.5930426763393</v>
+        <v>-380.7915961111867</v>
       </c>
       <c r="I47" t="s">
         <v>52</v>
@@ -1904,25 +1904,25 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>-0.08637159601222433</v>
+        <v>-0.09537419837720251</v>
       </c>
       <c r="C48">
-        <v>-0.2171205494447265</v>
+        <v>-0.336360388047669</v>
       </c>
       <c r="D48">
-        <v>0.03154963821678563</v>
+        <v>0.03171627736289144</v>
       </c>
       <c r="E48">
-        <v>0.01112411525319328</v>
+        <v>0.002636466560983502</v>
       </c>
       <c r="F48">
-        <v>-0.05567623754205207</v>
+        <v>-0.3229954678073044</v>
       </c>
       <c r="G48">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H48">
-        <v>-294.3261471450343</v>
+        <v>-310.3866543107021</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
@@ -1933,25 +1933,25 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>-0.08060166373429889</v>
+        <v>-0.09144118971576976</v>
       </c>
       <c r="C49">
-        <v>-0.2086380326262989</v>
+        <v>-0.3374374321280302</v>
       </c>
       <c r="D49">
-        <v>0.02977082663525545</v>
+        <v>0.03030784953497576</v>
       </c>
       <c r="E49">
-        <v>0.01139710651528875</v>
+        <v>0.002217106047685634</v>
       </c>
       <c r="F49">
-        <v>-0.04983314396353394</v>
+        <v>-0.3518419987180307</v>
       </c>
       <c r="G49">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H49">
-        <v>-183.1800482458563</v>
+        <v>-380.7915960805577</v>
       </c>
       <c r="I49" t="s">
         <v>52</v>
@@ -1962,25 +1962,25 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>-0.08351785353009833</v>
+        <v>-0.08774674684254191</v>
       </c>
       <c r="C50">
-        <v>-0.230026805494487</v>
+        <v>-0.3382689672558122</v>
       </c>
       <c r="D50">
-        <v>0.03067575447285051</v>
+        <v>0.02922125133130143</v>
       </c>
       <c r="E50">
-        <v>0.0112773539579761</v>
+        <v>0.002553708048094982</v>
       </c>
       <c r="F50">
-        <v>-0.05226689528890837</v>
+        <v>-0.3534062330095952</v>
       </c>
       <c r="G50">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="H50">
-        <v>-236.9164187320041</v>
+        <v>-334.536757055258</v>
       </c>
       <c r="I50" t="s">
         <v>52</v>
@@ -1991,25 +1991,25 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>-0.0844642889831041</v>
+        <v>-0.09466238695343798</v>
       </c>
       <c r="C51">
-        <v>-0.2115863726832337</v>
+        <v>-0.3318306169824272</v>
       </c>
       <c r="D51">
-        <v>0.0311651991790776</v>
+        <v>0.03135818413648278</v>
       </c>
       <c r="E51">
-        <v>0.01184341634823598</v>
+        <v>0.002241686727880149</v>
       </c>
       <c r="F51">
-        <v>-0.0332827668041095</v>
+        <v>-0.3392732701208633</v>
       </c>
       <c r="G51">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H51">
-        <v>-215.1929362462272</v>
+        <v>-380.7915704682615</v>
       </c>
       <c r="I51" t="s">
         <v>52</v>
@@ -2020,25 +2020,25 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>-0.08354269744178455</v>
+        <v>-0.09080411117412224</v>
       </c>
       <c r="C52">
-        <v>-0.2182552846507468</v>
+        <v>-0.3143483179079188</v>
       </c>
       <c r="D52">
-        <v>0.03101167916300075</v>
+        <v>0.03010305166996013</v>
       </c>
       <c r="E52">
-        <v>0.01229059537623153</v>
+        <v>0.002221311610627532</v>
       </c>
       <c r="F52">
-        <v>-0.01902783224293523</v>
+        <v>-0.3540959538306978</v>
       </c>
       <c r="G52">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H52">
-        <v>-217.277145699479</v>
+        <v>-300.899233728265</v>
       </c>
       <c r="I52" t="s">
         <v>52</v>
@@ -2049,25 +2049,25 @@
         <v>15</v>
       </c>
       <c r="B53">
-        <v>-0.08008285503889345</v>
+        <v>-0.09490766928323024</v>
       </c>
       <c r="C53">
-        <v>-0.2031910805310224</v>
+        <v>-0.3463501840743932</v>
       </c>
       <c r="D53">
-        <v>0.02910938573425082</v>
+        <v>0.03147351552353513</v>
       </c>
       <c r="E53">
-        <v>0.009871909169788797</v>
+        <v>0.002352805176272162</v>
       </c>
       <c r="F53">
-        <v>-0.1033608631455197</v>
+        <v>-0.3344995007237813</v>
       </c>
       <c r="G53">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="H53">
-        <v>-287.9758543474417</v>
+        <v>-280.2815345995242</v>
       </c>
       <c r="I53" t="s">
         <v>52</v>
@@ -2078,25 +2078,25 @@
         <v>16</v>
       </c>
       <c r="B54">
-        <v>-0.0853671050435707</v>
+        <v>-0.0880377860820275</v>
       </c>
       <c r="C54">
-        <v>-0.236441708917476</v>
+        <v>-0.3042759980917609</v>
       </c>
       <c r="D54">
-        <v>0.03152009254278117</v>
+        <v>0.02930556041013717</v>
       </c>
       <c r="E54">
-        <v>0.01203730322553077</v>
+        <v>0.002523203447730862</v>
       </c>
       <c r="F54">
-        <v>-0.02675681165089809</v>
+        <v>-0.353430434778623</v>
       </c>
       <c r="G54">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="H54">
-        <v>-223.4266781546136</v>
+        <v>-258.4727859605381</v>
       </c>
       <c r="I54" t="s">
         <v>52</v>
@@ -2107,25 +2107,25 @@
         <v>17</v>
       </c>
       <c r="B55">
-        <v>-0.088872121384864</v>
+        <v>-0.09070502960172722</v>
       </c>
       <c r="C55">
-        <v>-0.2281668010730352</v>
+        <v>-0.310823123239747</v>
       </c>
       <c r="D55">
-        <v>0.03275662502000168</v>
+        <v>0.03015317476011518</v>
       </c>
       <c r="E55">
-        <v>0.01235345949297008</v>
+        <v>0.002475285175504677</v>
       </c>
       <c r="F55">
-        <v>-0.01609509256905534</v>
+        <v>-0.3450845661258793</v>
       </c>
       <c r="G55">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="H55">
-        <v>-217.2771457035151</v>
+        <v>-300.8992337254828</v>
       </c>
       <c r="I55" t="s">
         <v>52</v>
@@ -2136,25 +2136,25 @@
         <v>18</v>
       </c>
       <c r="B56">
-        <v>-0.08493111071261783</v>
+        <v>-0.08808046051004448</v>
       </c>
       <c r="C56">
-        <v>-0.1991013158221077</v>
+        <v>-0.3197336370216524</v>
       </c>
       <c r="D56">
-        <v>0.03107020740332469</v>
+        <v>0.02920199401847162</v>
       </c>
       <c r="E56">
-        <v>0.01108304796447046</v>
+        <v>0.00216048481035577</v>
       </c>
       <c r="F56">
-        <v>-0.05785711106176999</v>
+        <v>-0.3671049171429885</v>
       </c>
       <c r="G56">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H56">
-        <v>-257.7943958265569</v>
+        <v>-243.0174038289798</v>
       </c>
       <c r="I56" t="s">
         <v>52</v>
@@ -2165,25 +2165,25 @@
         <v>19</v>
       </c>
       <c r="B57">
-        <v>-0.07935307916792289</v>
+        <v>-0.09421489410169503</v>
       </c>
       <c r="C57">
-        <v>-0.1832390141758491</v>
+        <v>-0.3340493244225994</v>
       </c>
       <c r="D57">
-        <v>0.02924804688316505</v>
+        <v>0.03119183394104108</v>
       </c>
       <c r="E57">
-        <v>0.01103018020274443</v>
+        <v>0.002175118831531829</v>
       </c>
       <c r="F57">
-        <v>-0.06326918886462604</v>
+        <v>-0.3432168045527783</v>
       </c>
       <c r="G57">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="H57">
-        <v>-236.9062021297328</v>
+        <v>-388.5760345891936</v>
       </c>
       <c r="I57" t="s">
         <v>52</v>
@@ -2194,25 +2194,25 @@
         <v>20</v>
       </c>
       <c r="B58">
-        <v>-0.07583361738192429</v>
+        <v>-0.09576531217332707</v>
       </c>
       <c r="C58">
-        <v>-0.1710955495664092</v>
+        <v>-0.379300464835724</v>
       </c>
       <c r="D58">
-        <v>0.02786353644896018</v>
+        <v>0.03170617179288135</v>
       </c>
       <c r="E58">
-        <v>0.01027118311673692</v>
+        <v>0.002214124205941683</v>
       </c>
       <c r="F58">
-        <v>-0.09365276704771287</v>
+        <v>-0.3364189240080383</v>
       </c>
       <c r="G58">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="H58">
-        <v>-266.1914241564479</v>
+        <v>-367.1408127475917</v>
       </c>
       <c r="I58" t="s">
         <v>52</v>
@@ -2223,25 +2223,25 @@
         <v>21</v>
       </c>
       <c r="B59">
-        <v>-0.07861154572530871</v>
+        <v>-0.0932731503275861</v>
       </c>
       <c r="C59">
-        <v>-0.1903854156897801</v>
+        <v>-0.3340922349436481</v>
       </c>
       <c r="D59">
-        <v>0.02896401907882429</v>
+        <v>0.03091680078257316</v>
       </c>
       <c r="E59">
-        <v>0.01089400174853504</v>
+        <v>0.002266946254075872</v>
       </c>
       <c r="F59">
-        <v>-0.06859126321437461</v>
+        <v>-0.3432998849228799</v>
       </c>
       <c r="G59">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="H59">
-        <v>-223.3606349105866</v>
+        <v>-388.5760345442102</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
@@ -2252,25 +2252,25 @@
         <v>22</v>
       </c>
       <c r="B60">
-        <v>-0.08155673553884157</v>
+        <v>-0.09144521872258959</v>
       </c>
       <c r="C60">
-        <v>-0.2352394941360792</v>
+        <v>-0.3234151305070135</v>
       </c>
       <c r="D60">
-        <v>0.03018736045135178</v>
+        <v>0.03039378741428971</v>
       </c>
       <c r="E60">
-        <v>0.01172922096585843</v>
+        <v>0.0024786450518451</v>
       </c>
       <c r="F60">
-        <v>-0.0381437602308435</v>
+        <v>-0.3422421566382741</v>
       </c>
       <c r="G60">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="H60">
-        <v>-201.265702481874</v>
+        <v>-323.7481969624634</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
@@ -2281,25 +2281,25 @@
         <v>23</v>
       </c>
       <c r="B61">
-        <v>-0.08098527632122221</v>
+        <v>-0.09220520298129642</v>
       </c>
       <c r="C61">
-        <v>-0.1979081438218247</v>
+        <v>-0.3300376683241493</v>
       </c>
       <c r="D61">
-        <v>0.02952362322603061</v>
+        <v>0.03066727030299462</v>
       </c>
       <c r="E61">
-        <v>0.01024957796698396</v>
+        <v>0.002563786450998284</v>
       </c>
       <c r="F61">
-        <v>-0.08911854814666094</v>
+        <v>-0.3364138331187281</v>
       </c>
       <c r="G61">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="H61">
-        <v>-310.0238401754895</v>
+        <v>-279.5452258174145</v>
       </c>
       <c r="I61" t="s">
         <v>52</v>
@@ -2310,25 +2310,25 @@
         <v>24</v>
       </c>
       <c r="B62">
-        <v>-0.07219970172806667</v>
+        <v>-0.08885619758932317</v>
       </c>
       <c r="C62">
-        <v>-0.1778752693964643</v>
+        <v>-0.3296387738009769</v>
       </c>
       <c r="D62">
-        <v>0.02662922296503569</v>
+        <v>0.02949654296684832</v>
       </c>
       <c r="E62">
-        <v>0.01009078336663248</v>
+        <v>0.002294972407098542</v>
       </c>
       <c r="F62">
-        <v>-0.1047682480989967</v>
+        <v>-0.3588796154761513</v>
       </c>
       <c r="G62">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="H62">
-        <v>-197.925240590441</v>
+        <v>-565.1380689939439</v>
       </c>
       <c r="I62" t="s">
         <v>52</v>
@@ -2339,25 +2339,25 @@
         <v>25</v>
       </c>
       <c r="B63">
-        <v>-0.07739248823185241</v>
+        <v>-0.09589914831863033</v>
       </c>
       <c r="C63">
-        <v>-0.1762844242396073</v>
+        <v>-0.3579942015895315</v>
       </c>
       <c r="D63">
-        <v>0.0278913221877342</v>
+        <v>0.03183410801389976</v>
       </c>
       <c r="E63">
-        <v>0.008798176654418862</v>
+        <v>0.002475640703958333</v>
       </c>
       <c r="F63">
-        <v>-0.1463718257248252</v>
+        <v>-0.3268519317838384</v>
       </c>
       <c r="G63">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="H63">
-        <v>-346.8475253234699</v>
+        <v>-276.9559158067174</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
@@ -2368,25 +2368,25 @@
         <v>26</v>
       </c>
       <c r="B64">
-        <v>-0.0775323288888059</v>
+        <v>-0.09810611611894093</v>
       </c>
       <c r="C64">
-        <v>-0.2226181522256446</v>
+        <v>-0.3687760003429308</v>
       </c>
       <c r="D64">
-        <v>0.02838753429746079</v>
+        <v>0.03239032503489724</v>
       </c>
       <c r="E64">
-        <v>0.01019174668965418</v>
+        <v>0.001987512711174692</v>
       </c>
       <c r="F64">
-        <v>-0.0947223414012109</v>
+        <v>-0.3363093047694298</v>
       </c>
       <c r="G64">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="H64">
-        <v>-225.9851476555304</v>
+        <v>-322.8491180492831</v>
       </c>
       <c r="I64" t="s">
         <v>52</v>
@@ -2397,25 +2397,25 @@
         <v>27</v>
       </c>
       <c r="B65">
-        <v>-0.07632710444771507</v>
+        <v>-0.08849552258108129</v>
       </c>
       <c r="C65">
-        <v>-0.2025942312678104</v>
+        <v>-0.3444521606377024</v>
       </c>
       <c r="D65">
-        <v>0.02822504552673448</v>
+        <v>0.02935872928402136</v>
       </c>
       <c r="E65">
-        <v>0.01089484308205721</v>
+        <v>0.002229771120436585</v>
       </c>
       <c r="F65">
-        <v>-0.07035727616377696</v>
+        <v>-0.3627850913246804</v>
       </c>
       <c r="G65">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="H65">
-        <v>-172.242628031484</v>
+        <v>-457.2070410758249</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
@@ -2426,25 +2426,25 @@
         <v>28</v>
       </c>
       <c r="B66">
-        <v>-0.08254671981933914</v>
+        <v>-0.09431634508414943</v>
       </c>
       <c r="C66">
-        <v>-0.1831668851913828</v>
+        <v>-0.3367598211654586</v>
       </c>
       <c r="D66">
-        <v>0.0300155982374435</v>
+        <v>0.031330467246333</v>
       </c>
       <c r="E66">
-        <v>0.01020845154296228</v>
+        <v>0.002502076967801301</v>
       </c>
       <c r="F66">
-        <v>-0.08902800606589421</v>
+        <v>-0.3312623254391547</v>
       </c>
       <c r="G66">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <v>-346.8929243096491</v>
+        <v>-276.9559158058523</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
@@ -2455,25 +2455,25 @@
         <v>29</v>
       </c>
       <c r="B67">
-        <v>-0.0826327569591444</v>
+        <v>-0.09495751940949815</v>
       </c>
       <c r="C67">
-        <v>-0.2326345830644525</v>
+        <v>-0.3549920595837177</v>
       </c>
       <c r="D67">
-        <v>0.03046952131394368</v>
+        <v>0.03144299273152291</v>
       </c>
       <c r="E67">
-        <v>0.0115251421586731</v>
+        <v>0.002208632532053704</v>
       </c>
       <c r="F67">
-        <v>-0.04448833417095418</v>
+        <v>-0.3394094183078179</v>
       </c>
       <c r="G67">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="H67">
-        <v>-172.547359022525</v>
+        <v>-375.9774315374129</v>
       </c>
       <c r="I67" t="s">
         <v>52</v>
@@ -2484,25 +2484,25 @@
         <v>30</v>
       </c>
       <c r="B68">
-        <v>-0.08141602457160757</v>
+        <v>-0.09237951988614568</v>
       </c>
       <c r="C68">
-        <v>-0.2050818483925877</v>
+        <v>-0.3260968551824058</v>
       </c>
       <c r="D68">
-        <v>0.02979249767177083</v>
+        <v>0.03074793902174363</v>
       </c>
       <c r="E68">
-        <v>0.01064971421512793</v>
+        <v>0.00263875462692452</v>
       </c>
       <c r="F68">
-        <v>-0.07488348960761373</v>
+        <v>-0.3330930821330714</v>
       </c>
       <c r="G68">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="H68">
-        <v>-251.6874098863359</v>
+        <v>-246.8536239637366</v>
       </c>
       <c r="I68" t="s">
         <v>52</v>
@@ -2513,25 +2513,25 @@
         <v>31</v>
       </c>
       <c r="B69">
-        <v>-0.0810856808645295</v>
+        <v>-0.09318596977383331</v>
       </c>
       <c r="C69">
-        <v>-0.2247936342431909</v>
+        <v>-0.3413354170480069</v>
       </c>
       <c r="D69">
-        <v>0.02994148728688208</v>
+        <v>0.03108795510610488</v>
       </c>
       <c r="E69">
-        <v>0.01144047044410634</v>
+        <v>0.00288303342774677</v>
       </c>
       <c r="F69">
-        <v>-0.04810081566794729</v>
+        <v>-0.3215922997523497</v>
       </c>
       <c r="G69">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="H69">
-        <v>-212.0577230128939</v>
+        <v>-323.7481969625437</v>
       </c>
       <c r="I69" t="s">
         <v>52</v>
@@ -2542,25 +2542,25 @@
         <v>32</v>
       </c>
       <c r="B70">
-        <v>-0.08282369341265983</v>
+        <v>-0.09077209238501871</v>
       </c>
       <c r="C70">
-        <v>-0.1865607738776048</v>
+        <v>-0.3247208712196779</v>
       </c>
       <c r="D70">
-        <v>0.03031738920142647</v>
+        <v>0.03016275288332108</v>
       </c>
       <c r="E70">
-        <v>0.01086408213625147</v>
+        <v>0.002437821017976476</v>
       </c>
       <c r="F70">
-        <v>-0.06651622457551488</v>
+        <v>-0.3462170521151234</v>
       </c>
       <c r="G70">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="H70">
-        <v>-268.676630978602</v>
+        <v>-263.5523419341554</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
@@ -2571,25 +2571,25 @@
         <v>33</v>
       </c>
       <c r="B71">
-        <v>-0.08464242500018526</v>
+        <v>-0.09064788298086468</v>
       </c>
       <c r="C71">
-        <v>-0.2098999006958708</v>
+        <v>-0.3079589615930346</v>
       </c>
       <c r="D71">
-        <v>0.03120971752834582</v>
+        <v>0.03011822239447349</v>
       </c>
       <c r="E71">
-        <v>0.01180285237228077</v>
+        <v>0.002424420866884231</v>
       </c>
       <c r="F71">
-        <v>-0.03453501402751084</v>
+        <v>-0.347173860431792</v>
       </c>
       <c r="G71">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H71">
-        <v>-279.9194924408065</v>
+        <v>-246.8536239638594</v>
       </c>
       <c r="I71" t="s">
         <v>52</v>
@@ -2600,25 +2600,25 @@
         <v>34</v>
       </c>
       <c r="B72">
-        <v>-0.07255600596380274</v>
+        <v>-0.0834060795618724</v>
       </c>
       <c r="C72">
-        <v>-0.160627520678826</v>
+        <v>-0.2974549505267716</v>
       </c>
       <c r="D72">
-        <v>0.026655530103955</v>
+        <v>0.02762289212729263</v>
       </c>
       <c r="E72">
-        <v>0.009815774301467659</v>
+        <v>0.001955074079675884</v>
       </c>
       <c r="F72">
-        <v>-0.1149819977879348</v>
+        <v>-0.3955272414956861</v>
       </c>
       <c r="G72">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="H72">
-        <v>-263.5668821174471</v>
+        <v>-284.6933246423744</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
@@ -2629,25 +2629,25 @@
         <v>35</v>
       </c>
       <c r="B73">
-        <v>-0.08552666317901703</v>
+        <v>-0.09955582993825796</v>
       </c>
       <c r="C73">
-        <v>-0.2171986012988644</v>
+        <v>-0.3625511882823937</v>
       </c>
       <c r="D73">
-        <v>0.03102089452259157</v>
+        <v>0.03310741704361209</v>
       </c>
       <c r="E73">
-        <v>0.01033510724091966</v>
+        <v>0.002753779783682987</v>
       </c>
       <c r="F73">
-        <v>-0.08205995356269699</v>
+        <v>-0.3058801176755583</v>
       </c>
       <c r="G73">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H73">
-        <v>-293.6773266290814</v>
+        <v>-310.3861214035792</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
@@ -2658,25 +2658,25 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>-0.07368884107855223</v>
+        <v>-0.09213121910980182</v>
       </c>
       <c r="C74">
-        <v>-0.1780163812191103</v>
+        <v>-0.3443649508411032</v>
       </c>
       <c r="D74">
-        <v>0.02705251993548502</v>
+        <v>0.03044259250051142</v>
       </c>
       <c r="E74">
-        <v>0.009909729989332389</v>
+        <v>0.001943463718780539</v>
       </c>
       <c r="F74">
-        <v>-0.1098215775339816</v>
+        <v>-0.359273497681006</v>
       </c>
       <c r="G74">
-        <v>380</v>
+        <v>142</v>
       </c>
       <c r="H74">
-        <v>-236.4563473473404</v>
+        <v>-255.7456999459482</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
@@ -2687,25 +2687,25 @@
         <v>37</v>
       </c>
       <c r="B75">
-        <v>-0.07595962363851005</v>
+        <v>-0.1016354790449725</v>
       </c>
       <c r="C75">
-        <v>-0.1718160683644204</v>
+        <v>-0.3953289749315381</v>
       </c>
       <c r="D75">
-        <v>0.02799298218322699</v>
+        <v>0.0334250914598004</v>
       </c>
       <c r="E75">
-        <v>0.01054519425007805</v>
+        <v>0.001655818420716577</v>
       </c>
       <c r="F75">
-        <v>-0.08343113068668286</v>
+        <v>-0.3358214291709613</v>
       </c>
       <c r="G75">
-        <v>444</v>
+        <v>305</v>
       </c>
       <c r="H75">
-        <v>-233.9195154233255</v>
+        <v>-417.4148417472335</v>
       </c>
       <c r="I75" t="s">
         <v>52</v>
@@ -2716,25 +2716,25 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>-0.08142293814231616</v>
+        <v>-0.09579517447035035</v>
       </c>
       <c r="C76">
-        <v>-0.1842822866310204</v>
+        <v>-0.3416841181034535</v>
       </c>
       <c r="D76">
-        <v>0.02973967014467844</v>
+        <v>0.03176496878812564</v>
       </c>
       <c r="E76">
-        <v>0.0104795513135435</v>
+        <v>0.002365958283127583</v>
       </c>
       <c r="F76">
-        <v>-0.08073825565960423</v>
+        <v>-0.3310162900496809</v>
       </c>
       <c r="G76">
-        <v>425</v>
+        <v>169</v>
       </c>
       <c r="H76">
-        <v>-1168.773150269307</v>
+        <v>-275.7541167745663</v>
       </c>
       <c r="I76" t="s">
         <v>52</v>
@@ -2745,25 +2745,25 @@
         <v>39</v>
       </c>
       <c r="B77">
-        <v>-0.08601493074054911</v>
+        <v>-0.09667347574063989</v>
       </c>
       <c r="C77">
-        <v>-0.1905145649906749</v>
+        <v>-0.3356582372160692</v>
       </c>
       <c r="D77">
-        <v>0.031333374602139</v>
+        <v>0.03197054824667167</v>
       </c>
       <c r="E77">
-        <v>0.01081247571623903</v>
+        <v>0.00212294529712169</v>
       </c>
       <c r="F77">
-        <v>-0.06600644568097766</v>
+        <v>-0.3364889155103901</v>
       </c>
       <c r="G77">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H77">
-        <v>-335.8568874657937</v>
+        <v>-271.5011984485138</v>
       </c>
       <c r="I77" t="s">
         <v>52</v>
@@ -2774,25 +2774,25 @@
         <v>40</v>
       </c>
       <c r="B78">
-        <v>-0.08067583762071595</v>
+        <v>-0.1022627352662969</v>
       </c>
       <c r="C78">
-        <v>-0.1766021199034428</v>
+        <v>-0.4014010933322384</v>
       </c>
       <c r="D78">
-        <v>0.0295187226138</v>
+        <v>0.03375736662929963</v>
       </c>
       <c r="E78">
-        <v>0.01054387263725516</v>
+        <v>0.002055369662716091</v>
       </c>
       <c r="F78">
-        <v>-0.0791635802888445</v>
+        <v>-0.3206799529441063</v>
       </c>
       <c r="G78">
-        <v>444</v>
+        <v>305</v>
       </c>
       <c r="H78">
-        <v>-230.0694383275306</v>
+        <v>-325.1544942536376</v>
       </c>
       <c r="I78" t="s">
         <v>52</v>
@@ -2803,25 +2803,25 @@
         <v>41</v>
       </c>
       <c r="B79">
-        <v>-0.08763736690025048</v>
+        <v>-0.09433748118209451</v>
       </c>
       <c r="C79">
-        <v>-0.1959860748829328</v>
+        <v>-0.3264336165335503</v>
       </c>
       <c r="D79">
-        <v>0.03194453006997387</v>
+        <v>0.03117838258154924</v>
       </c>
       <c r="E79">
-        <v>0.01107865192733196</v>
+        <v>0.002010963925468803</v>
       </c>
       <c r="F79">
-        <v>-0.05641117504742045</v>
+        <v>-0.3486299024979097</v>
       </c>
       <c r="G79">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H79">
-        <v>-335.8568873283284</v>
+        <v>-262.0455214202223</v>
       </c>
       <c r="I79" t="s">
         <v>52</v>
@@ -2832,25 +2832,25 @@
         <v>42</v>
       </c>
       <c r="B80">
-        <v>-0.04734298012427751</v>
+        <v>-0.06722171084871464</v>
       </c>
       <c r="C80">
-        <v>-0.06955815525569188</v>
+        <v>-0.217294710991555</v>
       </c>
       <c r="D80">
-        <v>0.01654849641773328</v>
+        <v>0.02219486908318702</v>
       </c>
       <c r="E80">
-        <v>0.00379571812430435</v>
+        <v>0.001365590623315098</v>
       </c>
       <c r="F80">
-        <v>-0.5489901953193217</v>
+        <v>-0.5188176482791069</v>
       </c>
       <c r="G80">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="H80">
-        <v>-300.8255625648773</v>
+        <v>-234.6338967761461</v>
       </c>
       <c r="I80" t="s">
         <v>52</v>
@@ -2861,25 +2861,25 @@
         <v>43</v>
       </c>
       <c r="B81">
-        <v>-0.08697652092575769</v>
+        <v>-0.09627934026357643</v>
       </c>
       <c r="C81">
-        <v>-0.2196827236943321</v>
+        <v>-0.3295390602482801</v>
       </c>
       <c r="D81">
-        <v>0.03176967780548839</v>
+        <v>0.0318919298752987</v>
       </c>
       <c r="E81">
-        <v>0.0111991637853051</v>
+        <v>0.002274131743110185</v>
       </c>
       <c r="F81">
-        <v>-0.05292834979022833</v>
+        <v>-0.3325778246496698</v>
       </c>
       <c r="G81">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H81">
-        <v>-258.754649128214</v>
+        <v>-366.1069838599533</v>
       </c>
       <c r="I81" t="s">
         <v>52</v>
@@ -2890,25 +2890,25 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>-0.08257110996289996</v>
+        <v>-0.09369043485037742</v>
       </c>
       <c r="C82">
-        <v>-0.1929401429242942</v>
+        <v>-0.3229372544410975</v>
       </c>
       <c r="D82">
-        <v>0.03053820677127926</v>
+        <v>0.03102959699441244</v>
       </c>
       <c r="E82">
-        <v>0.01179904317413985</v>
+        <v>0.00219822822912343</v>
       </c>
       <c r="F82">
-        <v>-0.03541914686995501</v>
+        <v>-0.3442665458309697</v>
       </c>
       <c r="G82">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H82">
-        <v>-189.2082762234249</v>
+        <v>-380.7915960804169</v>
       </c>
       <c r="I82" t="s">
         <v>52</v>
@@ -2919,25 +2919,25 @@
         <v>45</v>
       </c>
       <c r="B83">
-        <v>-0.08579804700001836</v>
+        <v>-0.09732929253510048</v>
       </c>
       <c r="C83">
-        <v>-0.1876998259081858</v>
+        <v>-0.3422791297810073</v>
       </c>
       <c r="D83">
-        <v>0.03112214098332963</v>
+        <v>0.03222989351880188</v>
       </c>
       <c r="E83">
-        <v>0.01037659850377614</v>
+        <v>0.002268565641049743</v>
       </c>
       <c r="F83">
-        <v>-0.08045982127264319</v>
+        <v>-0.329263103450104</v>
       </c>
       <c r="G83">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H83">
-        <v>-339.682612861227</v>
+        <v>-266.6006412484123</v>
       </c>
       <c r="I83" t="s">
         <v>52</v>
@@ -2948,25 +2948,25 @@
         <v>46</v>
       </c>
       <c r="B84">
-        <v>-0.08310642321123118</v>
+        <v>-0.09308354688834397</v>
       </c>
       <c r="C84">
-        <v>-0.2028072021471586</v>
+        <v>-0.330594731837309</v>
       </c>
       <c r="D84">
-        <v>0.03043613864942028</v>
+        <v>0.03084488286855545</v>
       </c>
       <c r="E84">
-        <v>0.01094831571821014</v>
+        <v>0.002234306632028221</v>
       </c>
       <c r="F84">
-        <v>-0.06348915376436898</v>
+        <v>-0.3451585087308591</v>
       </c>
       <c r="G84">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="H84">
-        <v>-307.3233269579417</v>
+        <v>-295.1051424671572</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
@@ -2977,25 +2977,25 @@
         <v>47</v>
       </c>
       <c r="B85">
-        <v>-0.07833551936854111</v>
+        <v>-0.09272379162735178</v>
       </c>
       <c r="C85">
-        <v>-0.1711918756102544</v>
+        <v>-0.3296256178010669</v>
       </c>
       <c r="D85">
-        <v>0.02885730263484055</v>
+        <v>0.03077612211733707</v>
       </c>
       <c r="E85">
-        <v>0.01084024950250474</v>
+        <v>0.00238157519820889</v>
       </c>
       <c r="F85">
-        <v>-0.07070761007124088</v>
+        <v>-0.3411445134861064</v>
       </c>
       <c r="G85">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="H85">
-        <v>-259.3122977424444</v>
+        <v>-270.7419219426413</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
@@ -3006,25 +3006,25 @@
         <v>48</v>
       </c>
       <c r="B86">
-        <v>-0.08193469914905849</v>
+        <v>-0.1002480080027441</v>
       </c>
       <c r="C86">
-        <v>-0.188789100451535</v>
+        <v>-0.3787911735863064</v>
       </c>
       <c r="D86">
-        <v>0.03016087629583588</v>
+        <v>0.03301547635557499</v>
       </c>
       <c r="E86">
-        <v>0.01126941516266473</v>
+        <v>0.001777483634773298</v>
       </c>
       <c r="F86">
-        <v>-0.05342236168630712</v>
+        <v>-0.3363027887455775</v>
       </c>
       <c r="G86">
-        <v>444</v>
+        <v>305</v>
       </c>
       <c r="H86">
-        <v>-210.4471684561028</v>
+        <v>-414.6588876566876</v>
       </c>
       <c r="I86" t="s">
         <v>52</v>
@@ -3035,25 +3035,25 @@
         <v>49</v>
       </c>
       <c r="B87">
-        <v>-0.0830883646937145</v>
+        <v>-0.09345983887319209</v>
       </c>
       <c r="C87">
-        <v>-0.1794297219719937</v>
+        <v>-0.3039595101965676</v>
       </c>
       <c r="D87">
-        <v>0.03038140008973924</v>
+        <v>0.03084001296238299</v>
       </c>
       <c r="E87">
-        <v>0.01079721937020738</v>
+        <v>0.001842965505797919</v>
       </c>
       <c r="F87">
-        <v>-0.06857686046579257</v>
+        <v>-0.3579024079069663</v>
       </c>
       <c r="G87">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="H87">
-        <v>-265.2304036439509</v>
+        <v>-397.9752970321281</v>
       </c>
       <c r="I87" t="s">
         <v>52</v>
@@ -3064,25 +3064,25 @@
         <v>50</v>
       </c>
       <c r="B88">
-        <v>-0.08202807086805242</v>
+        <v>-0.09026302303157696</v>
       </c>
       <c r="C88">
-        <v>-0.21563865251973</v>
+        <v>-0.329927363178151</v>
       </c>
       <c r="D88">
-        <v>0.03016164937966996</v>
+        <v>0.0299000363647077</v>
       </c>
       <c r="E88">
-        <v>0.01117843245231008</v>
+        <v>0.002135035298235241</v>
       </c>
       <c r="F88">
-        <v>-0.05643749554870616</v>
+        <v>-0.3593856868804731</v>
       </c>
       <c r="G88">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="H88">
-        <v>-265.6296824575283</v>
+        <v>-348.1230343580993</v>
       </c>
       <c r="I88" t="s">
         <v>52</v>
@@ -3093,25 +3093,25 @@
         <v>51</v>
       </c>
       <c r="B89">
-        <v>-0.1083956060061853</v>
+        <v>-0.1056602560581522</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="D89">
-        <v>0.035238263105729</v>
+        <v>0.03420942111926081</v>
       </c>
       <c r="E89">
-        <v>0.0004988130563798225</v>
+        <v>5.480225988700818E-05</v>
       </c>
       <c r="F89">
-        <v>-0.3513756427604398</v>
+        <v>-0.3749223963865476</v>
       </c>
       <c r="G89">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="H89">
-        <v>-257.051282051282</v>
+        <v>-732.3943661971921</v>
       </c>
       <c r="I89" t="s">
         <v>52</v>
@@ -3122,25 +3122,25 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <v>-0.1372275481146232</v>
+        <v>-0.1088536304304059</v>
       </c>
       <c r="C90">
-        <v>-0.1013971820496784</v>
+        <v>-0.1323170503122917</v>
       </c>
       <c r="D90">
-        <v>0.04891591143239289</v>
+        <v>0.03550165271964149</v>
       </c>
       <c r="E90">
-        <v>0.01393398167940078</v>
+        <v>0.000854723726180679</v>
       </c>
       <c r="F90">
-        <v>0.02153289683541351</v>
+        <v>-0.3387435726923984</v>
       </c>
       <c r="G90">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H90">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I90" t="s">
         <v>53</v>
@@ -3151,25 +3151,25 @@
         <v>9</v>
       </c>
       <c r="B91">
-        <v>-0.1358443909921474</v>
+        <v>-0.1185106730891674</v>
       </c>
       <c r="C91">
-        <v>-0.103347478308246</v>
+        <v>-0.1895983296738447</v>
       </c>
       <c r="D91">
-        <v>0.04896620355051708</v>
+        <v>0.03911858818238211</v>
       </c>
       <c r="E91">
-        <v>0.01547255313004952</v>
+        <v>0.002374851883704179</v>
       </c>
       <c r="F91">
-        <v>0.05293187008992263</v>
+        <v>-0.2685635911048596</v>
       </c>
       <c r="G91">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H91">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I91" t="s">
         <v>53</v>
@@ -3180,25 +3180,25 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <v>-0.1276979039110917</v>
+        <v>-0.1184909006314906</v>
       </c>
       <c r="C92">
-        <v>-0.1236465642340492</v>
+        <v>-0.1890144866614428</v>
       </c>
       <c r="D92">
-        <v>0.04609790978123762</v>
+        <v>0.03913572701657678</v>
       </c>
       <c r="E92">
-        <v>0.01475534614169802</v>
+        <v>0.002447587320499301</v>
       </c>
       <c r="F92">
-        <v>0.04066704424729017</v>
+        <v>-0.2665874350564225</v>
       </c>
       <c r="G92">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H92">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I92" t="s">
         <v>53</v>
@@ -3209,25 +3209,25 @@
         <v>11</v>
       </c>
       <c r="B93">
-        <v>-0.1265937712508085</v>
+        <v>-0.1220039137014972</v>
       </c>
       <c r="C93">
-        <v>-0.1168678256433352</v>
+        <v>-0.1908990717378033</v>
       </c>
       <c r="D93">
-        <v>0.04583514066346622</v>
+        <v>0.04026516824777547</v>
       </c>
       <c r="E93">
-        <v>0.01504746118518086</v>
+        <v>0.002424810031061027</v>
       </c>
       <c r="F93">
-        <v>0.04727335291001057</v>
+        <v>-0.2596753181189916</v>
       </c>
       <c r="G93">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="H93">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I93" t="s">
         <v>53</v>
@@ -3238,25 +3238,25 @@
         <v>12</v>
       </c>
       <c r="B94">
-        <v>-0.1350106014378598</v>
+        <v>-0.1221972760838321</v>
       </c>
       <c r="C94">
-        <v>-0.09602066614268222</v>
+        <v>-0.1905966498479642</v>
       </c>
       <c r="D94">
-        <v>0.04844431687790619</v>
+        <v>0.04032161292188568</v>
       </c>
       <c r="E94">
-        <v>0.0146935916284765</v>
+        <v>0.002405874804172541</v>
       </c>
       <c r="F94">
-        <v>0.03742257792856736</v>
+        <v>-0.2597814135321658</v>
       </c>
       <c r="G94">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H94">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I94" t="s">
         <v>53</v>
@@ -3267,25 +3267,25 @@
         <v>13</v>
       </c>
       <c r="B95">
-        <v>-0.1442187473945693</v>
+        <v>-0.1185106730891674</v>
       </c>
       <c r="C95">
-        <v>-0.1226483660633591</v>
+        <v>-0.1895983296738447</v>
       </c>
       <c r="D95">
-        <v>0.0517418235393811</v>
+        <v>0.03911858818238211</v>
       </c>
       <c r="E95">
-        <v>0.01567550728686045</v>
+        <v>0.002374851883704179</v>
       </c>
       <c r="F95">
-        <v>0.05401485086462877</v>
+        <v>-0.2685635911048596</v>
       </c>
       <c r="G95">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H95">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I95" t="s">
         <v>53</v>
@@ -3296,25 +3296,25 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>-0.141307011186245</v>
+        <v>-0.1186466914163132</v>
       </c>
       <c r="C96">
-        <v>-0.08819857060763485</v>
+        <v>-0.1866439441508566</v>
       </c>
       <c r="D96">
-        <v>0.05089137566071036</v>
+        <v>0.0390810892746437</v>
       </c>
       <c r="E96">
-        <v>0.01595916198580447</v>
+        <v>0.002122953220419144</v>
       </c>
       <c r="F96">
-        <v>0.06049122353091159</v>
+        <v>-0.2752668204536828</v>
       </c>
       <c r="G96">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H96">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I96" t="s">
         <v>53</v>
@@ -3325,25 +3325,25 @@
         <v>15</v>
       </c>
       <c r="B97">
-        <v>-0.1289666254379307</v>
+        <v>-0.1131635960020557</v>
       </c>
       <c r="C97">
-        <v>-0.1187856348801964</v>
+        <v>-0.1489248476060878</v>
       </c>
       <c r="D97">
-        <v>0.04604664973476061</v>
+        <v>0.03741861805595142</v>
       </c>
       <c r="E97">
-        <v>0.01332821916322005</v>
+        <v>0.002468626366599668</v>
       </c>
       <c r="F97">
-        <v>0.00971924691331812</v>
+        <v>-0.2782586471458728</v>
       </c>
       <c r="G97">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H97">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I97" t="s">
         <v>53</v>
@@ -3354,25 +3354,25 @@
         <v>16</v>
       </c>
       <c r="B98">
-        <v>-0.1360491236238668</v>
+        <v>-0.1208641226045707</v>
       </c>
       <c r="C98">
-        <v>-0.08599996387968502</v>
+        <v>-0.1797327882634249</v>
       </c>
       <c r="D98">
-        <v>0.04891986148480579</v>
+        <v>0.03975312404667958</v>
       </c>
       <c r="E98">
-        <v>0.01512461274973453</v>
+        <v>0.001982265595575066</v>
       </c>
       <c r="F98">
-        <v>0.04586955638692151</v>
+        <v>-0.2741524111801743</v>
       </c>
       <c r="G98">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H98">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I98" t="s">
         <v>53</v>
@@ -3383,25 +3383,25 @@
         <v>17</v>
       </c>
       <c r="B99">
-        <v>-0.1456374962287385</v>
+        <v>-0.1186757324321814</v>
       </c>
       <c r="C99">
-        <v>-0.107790011196121</v>
+        <v>-0.1857114764621237</v>
       </c>
       <c r="D99">
-        <v>0.0522986685590077</v>
+        <v>0.03902308523877062</v>
       </c>
       <c r="E99">
-        <v>0.01597753892187004</v>
+        <v>0.001914666259007896</v>
       </c>
       <c r="F99">
-        <v>0.05921486344263367</v>
+        <v>-0.2810135097932718</v>
       </c>
       <c r="G99">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H99">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I99" t="s">
         <v>53</v>
@@ -3412,25 +3412,25 @@
         <v>18</v>
       </c>
       <c r="B100">
-        <v>-0.1347934370331163</v>
+        <v>-0.1207031617226035</v>
       </c>
       <c r="C100">
-        <v>-0.07838324960657614</v>
+        <v>-0.1779426656437228</v>
       </c>
       <c r="D100">
-        <v>0.04842494040519629</v>
+        <v>0.03927559970291331</v>
       </c>
       <c r="E100">
-        <v>0.01485087823127235</v>
+        <v>0.0006675653234541457</v>
       </c>
       <c r="F100">
-        <v>0.04068560146630744</v>
+        <v>-0.3109593532331671</v>
       </c>
       <c r="G100">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H100">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I100" t="s">
         <v>53</v>
@@ -3441,25 +3441,25 @@
         <v>19</v>
       </c>
       <c r="B101">
-        <v>-0.1414406077072429</v>
+        <v>-0.110464549477063</v>
       </c>
       <c r="C101">
-        <v>-0.09820922136749878</v>
+        <v>-0.1692526945410492</v>
       </c>
       <c r="D101">
-        <v>0.05047566715870977</v>
+        <v>0.03638281591808461</v>
       </c>
       <c r="E101">
-        <v>0.01454092962197578</v>
+        <v>0.001966803662358553</v>
       </c>
       <c r="F101">
-        <v>0.03289207078409965</v>
+        <v>-0.2999733931296227</v>
       </c>
       <c r="G101">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H101">
-        <v>-266.3945372735219</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I101" t="s">
         <v>53</v>
@@ -3470,25 +3470,25 @@
         <v>20</v>
       </c>
       <c r="B102">
-        <v>-0.1327478398912671</v>
+        <v>-0.1187374570312771</v>
       </c>
       <c r="C102">
-        <v>-0.1079667974623436</v>
+        <v>-0.1708412485480033</v>
       </c>
       <c r="D102">
-        <v>0.04744851337960149</v>
+        <v>0.03893168393704916</v>
       </c>
       <c r="E102">
-        <v>0.01387908903401308</v>
+        <v>0.001570490404506706</v>
       </c>
       <c r="F102">
-        <v>0.02104193699618547</v>
+        <v>-0.2905137629982361</v>
       </c>
       <c r="G102">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H102">
-        <v>-188.9327970866904</v>
+        <v>-267.2222948687876</v>
       </c>
       <c r="I102" t="s">
         <v>53</v>
@@ -3499,25 +3499,25 @@
         <v>21</v>
       </c>
       <c r="B103">
-        <v>-0.1393163874193154</v>
+        <v>-0.1094073101164239</v>
       </c>
       <c r="C103">
-        <v>-0.1173710470548508</v>
+        <v>-0.1659990789081565</v>
       </c>
       <c r="D103">
-        <v>0.04965959985909886</v>
+        <v>0.03603201873824195</v>
       </c>
       <c r="E103">
-        <v>0.0141433123766385</v>
+        <v>0.001939998244935434</v>
       </c>
       <c r="F103">
-        <v>0.02542573792991037</v>
+        <v>-0.3036377794833268</v>
       </c>
       <c r="G103">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H103">
-        <v>-266.3945372735219</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I103" t="s">
         <v>53</v>
@@ -3528,25 +3528,25 @@
         <v>22</v>
       </c>
       <c r="B104">
-        <v>-0.137398423026875</v>
+        <v>-0.1204354077889161</v>
       </c>
       <c r="C104">
-        <v>-0.1028770219388687</v>
+        <v>-0.1804669901978875</v>
       </c>
       <c r="D104">
-        <v>0.0493172419765866</v>
+        <v>0.03967959023187206</v>
       </c>
       <c r="E104">
-        <v>0.01500331138026836</v>
+        <v>0.002183743841115492</v>
       </c>
       <c r="F104">
-        <v>0.04304034228757648</v>
+        <v>-0.2695828384641228</v>
       </c>
       <c r="G104">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H104">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I104" t="s">
         <v>53</v>
@@ -3557,25 +3557,25 @@
         <v>23</v>
       </c>
       <c r="B105">
-        <v>-0.1359543231810676</v>
+        <v>-0.1095928761282506</v>
       </c>
       <c r="C105">
-        <v>-0.09335528572487677</v>
+        <v>-0.1501202330141005</v>
       </c>
       <c r="D105">
-        <v>0.04828841372564671</v>
+        <v>0.03598757839488535</v>
       </c>
       <c r="E105">
-        <v>0.01326809292752311</v>
+        <v>0.001617101248370842</v>
       </c>
       <c r="F105">
-        <v>0.008022887742955684</v>
+        <v>-0.3129851926393249</v>
       </c>
       <c r="G105">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H105">
-        <v>-266.3945372735219</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I105" t="s">
         <v>53</v>
@@ -3586,25 +3586,25 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>-0.1341695095027599</v>
+        <v>-0.1130239642911268</v>
       </c>
       <c r="C106">
-        <v>-0.05909954325335965</v>
+        <v>-0.1536986828853222</v>
       </c>
       <c r="D106">
-        <v>0.04769278069840808</v>
+        <v>0.03722200342863976</v>
       </c>
       <c r="E106">
-        <v>0.01321226218243751</v>
+        <v>0.002000673204344869</v>
       </c>
       <c r="F106">
-        <v>0.006952452188046525</v>
+        <v>-0.2923004190634338</v>
       </c>
       <c r="G106">
-        <v>351</v>
+        <v>158</v>
       </c>
       <c r="H106">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I106" t="s">
         <v>53</v>
@@ -3615,25 +3615,25 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>-0.1298312743104334</v>
+        <v>-0.1081578710559818</v>
       </c>
       <c r="C107">
-        <v>-0.1112420851711583</v>
+        <v>-0.1363044334067348</v>
       </c>
       <c r="D107">
-        <v>0.04592024911065399</v>
+        <v>0.03559881485212053</v>
       </c>
       <c r="E107">
-        <v>0.01207296299858334</v>
+        <v>0.001850736661327541</v>
       </c>
       <c r="F107">
-        <v>-0.01758956935070507</v>
+        <v>-0.3098401952258328</v>
       </c>
       <c r="G107">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="H107">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I107" t="s">
         <v>53</v>
@@ -3644,25 +3644,25 @@
         <v>26</v>
       </c>
       <c r="B108">
-        <v>-0.1356932042126651</v>
+        <v>-0.1165994103210195</v>
       </c>
       <c r="C108">
-        <v>-0.09646034583999646</v>
+        <v>-0.1432716014491487</v>
       </c>
       <c r="D108">
-        <v>0.04838989371142563</v>
+        <v>0.03827095496540323</v>
       </c>
       <c r="E108">
-        <v>0.01384280862640906</v>
+        <v>0.001666731100963103</v>
       </c>
       <c r="F108">
-        <v>0.01988283394937583</v>
+        <v>-0.2930146194180703</v>
       </c>
       <c r="G108">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="H108">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I108" t="s">
         <v>53</v>
@@ -3673,25 +3673,25 @@
         <v>27</v>
       </c>
       <c r="B109">
-        <v>-0.1359995481897089</v>
+        <v>-0.1146566352641067</v>
       </c>
       <c r="C109">
-        <v>-0.126016489219861</v>
+        <v>-0.1519517804828201</v>
       </c>
       <c r="D109">
-        <v>0.04832961546672682</v>
+        <v>0.037885949036366</v>
       </c>
       <c r="E109">
-        <v>0.01335019087023792</v>
+        <v>0.002419748397898841</v>
       </c>
       <c r="F109">
-        <v>0.009714756899820882</v>
+        <v>-0.2761164039200061</v>
       </c>
       <c r="G109">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="H109">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I109" t="s">
         <v>53</v>
@@ -3702,25 +3702,25 @@
         <v>28</v>
       </c>
       <c r="B110">
-        <v>-0.1344760383178012</v>
+        <v>-0.1085896229902744</v>
       </c>
       <c r="C110">
-        <v>-0.1190388616488187</v>
+        <v>-0.1355568349748046</v>
       </c>
       <c r="D110">
-        <v>0.04796919159221191</v>
+        <v>0.03567926124099981</v>
       </c>
       <c r="E110">
-        <v>0.01375990724120544</v>
+        <v>0.001667582756864271</v>
       </c>
       <c r="F110">
-        <v>0.01832899006852019</v>
+        <v>-0.3142749389431684</v>
       </c>
       <c r="G110">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="H110">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I110" t="s">
         <v>53</v>
@@ -3731,25 +3731,25 @@
         <v>29</v>
       </c>
       <c r="B111">
-        <v>-0.1329240607618415</v>
+        <v>-0.1181434013793534</v>
       </c>
       <c r="C111">
-        <v>-0.1068923762586622</v>
+        <v>-0.1771892602816553</v>
       </c>
       <c r="D111">
-        <v>0.04772074838324499</v>
+        <v>0.03889728343032464</v>
       </c>
       <c r="E111">
-        <v>0.0145441375665676</v>
+        <v>0.002058240499201777</v>
       </c>
       <c r="F111">
-        <v>0.03485815327730295</v>
+        <v>-0.2782312529640001</v>
       </c>
       <c r="G111">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H111">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I111" t="s">
         <v>53</v>
@@ -3760,25 +3760,25 @@
         <v>30</v>
       </c>
       <c r="B112">
-        <v>-0.1339497933894847</v>
+        <v>-0.1190622022615326</v>
       </c>
       <c r="C112">
-        <v>-0.1071815140870335</v>
+        <v>-0.1802361691206595</v>
       </c>
       <c r="D112">
-        <v>0.04805780525789471</v>
+        <v>0.03917101829367664</v>
       </c>
       <c r="E112">
-        <v>0.01455998898198294</v>
+        <v>0.001985343935077351</v>
       </c>
       <c r="F112">
-        <v>0.0349435137134197</v>
+        <v>-0.278147899759816</v>
       </c>
       <c r="G112">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H112">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I112" t="s">
         <v>53</v>
@@ -3789,25 +3789,25 @@
         <v>31</v>
       </c>
       <c r="B113">
-        <v>-0.1280046981155305</v>
+        <v>-0.1185415217886007</v>
       </c>
       <c r="C113">
-        <v>-0.1232542027133146</v>
+        <v>-0.1880017183302853</v>
       </c>
       <c r="D113">
-        <v>0.04610573726739099</v>
+        <v>0.03908787685230246</v>
       </c>
       <c r="E113">
-        <v>0.0144727406878465</v>
+        <v>0.002249098039893436</v>
       </c>
       <c r="F113">
-        <v>0.03453063278646813</v>
+        <v>-0.2719918097674102</v>
       </c>
       <c r="G113">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H113">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I113" t="s">
         <v>53</v>
@@ -3818,25 +3818,25 @@
         <v>32</v>
       </c>
       <c r="B114">
-        <v>-0.1314947392054592</v>
+        <v>-0.111999704447394</v>
       </c>
       <c r="C114">
-        <v>-0.1257587762705371</v>
+        <v>-0.165165232897057</v>
       </c>
       <c r="D114">
-        <v>0.04703756641758496</v>
+        <v>0.03665160954174437</v>
       </c>
       <c r="E114">
-        <v>0.01386226814167606</v>
+        <v>0.001262283431552857</v>
       </c>
       <c r="F114">
-        <v>0.02086816584100015</v>
+        <v>-0.3169955458608498</v>
       </c>
       <c r="G114">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H114">
-        <v>-188.9327970866904</v>
+        <v>-267.2222948687876</v>
       </c>
       <c r="I114" t="s">
         <v>53</v>
@@ -3847,25 +3847,25 @@
         <v>33</v>
       </c>
       <c r="B115">
-        <v>-0.1321589298601756</v>
+        <v>-0.1178986840764834</v>
       </c>
       <c r="C115">
-        <v>-0.09784487310523035</v>
+        <v>-0.1574925335180999</v>
       </c>
       <c r="D115">
-        <v>0.04768469229363777</v>
+        <v>0.03880987607437333</v>
       </c>
       <c r="E115">
-        <v>0.01519784677529516</v>
+        <v>0.002032848766914412</v>
       </c>
       <c r="F115">
-        <v>0.0485935057755942</v>
+        <v>-0.2795121431775299</v>
       </c>
       <c r="G115">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H115">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I115" t="s">
         <v>53</v>
@@ -3876,25 +3876,25 @@
         <v>34</v>
       </c>
       <c r="B116">
-        <v>-0.1402569557460792</v>
+        <v>-0.1109509026563381</v>
       </c>
       <c r="C116">
-        <v>-0.04747885610939157</v>
+        <v>-0.1463304205465639</v>
       </c>
       <c r="D116">
-        <v>0.04971076874195705</v>
+        <v>0.03659910426661877</v>
       </c>
       <c r="E116">
-        <v>0.01336086778475353</v>
+        <v>0.002148831725171481</v>
       </c>
       <c r="F116">
-        <v>0.009659624906009561</v>
+        <v>-0.2932270856020277</v>
       </c>
       <c r="G116">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="H116">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I116" t="s">
         <v>53</v>
@@ -3905,25 +3905,25 @@
         <v>35</v>
       </c>
       <c r="B117">
-        <v>-0.1319339529928213</v>
+        <v>-0.1195278476855336</v>
       </c>
       <c r="C117">
-        <v>-0.1295906967047086</v>
+        <v>-0.1859571278107995</v>
       </c>
       <c r="D117">
-        <v>0.04727508072855745</v>
+        <v>0.03936837356964332</v>
       </c>
       <c r="E117">
-        <v>0.01415702875125844</v>
+        <v>0.002129572160661224</v>
       </c>
       <c r="F117">
-        <v>0.02699833245489505</v>
+        <v>-0.2730899772945084</v>
       </c>
       <c r="G117">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H117">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I117" t="s">
         <v>53</v>
@@ -3934,25 +3934,25 @@
         <v>36</v>
       </c>
       <c r="B118">
-        <v>-0.1282112793691111</v>
+        <v>-0.109662497695728</v>
       </c>
       <c r="C118">
-        <v>-0.07026699549098697</v>
+        <v>-0.1629704365460175</v>
       </c>
       <c r="D118">
-        <v>0.04558919891646026</v>
+        <v>0.03636361826168338</v>
       </c>
       <c r="E118">
-        <v>0.01266993593484501</v>
+        <v>0.002709530225679861</v>
       </c>
       <c r="F118">
-        <v>-0.0046226842120655</v>
+        <v>-0.2797067691680836</v>
       </c>
       <c r="G118">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="H118">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I118" t="s">
         <v>53</v>
@@ -3963,25 +3963,25 @@
         <v>37</v>
       </c>
       <c r="B119">
-        <v>-0.1255789872013897</v>
+        <v>-0.1175208100181413</v>
       </c>
       <c r="C119">
-        <v>-0.1208656061017699</v>
+        <v>-0.1574789893507098</v>
       </c>
       <c r="D119">
-        <v>0.04523676310311771</v>
+        <v>0.0388204942471613</v>
       </c>
       <c r="E119">
-        <v>0.01421311956632474</v>
+        <v>0.002443535445838297</v>
       </c>
       <c r="F119">
-        <v>0.02945478566560086</v>
+        <v>-0.2688565707749006</v>
       </c>
       <c r="G119">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H119">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I119" t="s">
         <v>53</v>
@@ -3992,25 +3992,25 @@
         <v>38</v>
       </c>
       <c r="B120">
-        <v>-0.1234131800960682</v>
+        <v>-0.1130841102779165</v>
       </c>
       <c r="C120">
-        <v>-0.1194107262169666</v>
+        <v>-0.1520301601806823</v>
       </c>
       <c r="D120">
-        <v>0.04439912480207767</v>
+        <v>0.03741900473463755</v>
       </c>
       <c r="E120">
-        <v>0.01379042973288886</v>
+        <v>0.002549307017706855</v>
       </c>
       <c r="F120">
-        <v>0.02049025362611311</v>
+        <v>-0.2760996306683318</v>
       </c>
       <c r="G120">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H120">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I120" t="s">
         <v>53</v>
@@ -4021,25 +4021,25 @@
         <v>39</v>
       </c>
       <c r="B121">
-        <v>-0.1271993100342153</v>
+        <v>-0.1123236797790058</v>
       </c>
       <c r="C121">
-        <v>-0.1420000885616686</v>
+        <v>-0.1363051306779679</v>
       </c>
       <c r="D121">
-        <v>0.04579064563001158</v>
+        <v>0.03719755224833556</v>
       </c>
       <c r="E121">
-        <v>0.01430442241192847</v>
+        <v>0.00262539788916603</v>
       </c>
       <c r="F121">
-        <v>0.03109242045887422</v>
+        <v>-0.2756977783722232</v>
       </c>
       <c r="G121">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H121">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I121" t="s">
         <v>53</v>
@@ -4050,25 +4050,25 @@
         <v>40</v>
       </c>
       <c r="B122">
-        <v>-0.127954845504916</v>
+        <v>-0.116826980595063</v>
       </c>
       <c r="C122">
-        <v>-0.1450645811346851</v>
+        <v>-0.160752005969553</v>
       </c>
       <c r="D122">
-        <v>0.04597923572928039</v>
+        <v>0.0385945550444675</v>
       </c>
       <c r="E122">
-        <v>0.01413167415861175</v>
+        <v>0.002439160245522415</v>
       </c>
       <c r="F122">
-        <v>0.02720779790818179</v>
+        <v>-0.2705438668061859</v>
       </c>
       <c r="G122">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H122">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I122" t="s">
         <v>53</v>
@@ -4079,25 +4079,25 @@
         <v>41</v>
       </c>
       <c r="B123">
-        <v>-0.1341855035539643</v>
+        <v>-0.1123236797790058</v>
       </c>
       <c r="C123">
-        <v>-0.1301665554404822</v>
+        <v>-0.1363051306779679</v>
       </c>
       <c r="D123">
-        <v>0.04809790023962855</v>
+        <v>0.03719755224833556</v>
       </c>
       <c r="E123">
-        <v>0.01444818162537239</v>
+        <v>0.00262539788916603</v>
       </c>
       <c r="F123">
-        <v>0.03258980563904244</v>
+        <v>-0.2756977783722232</v>
       </c>
       <c r="G123">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H123">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I123" t="s">
         <v>53</v>
@@ -4108,25 +4108,25 @@
         <v>42</v>
       </c>
       <c r="B124">
-        <v>-0.1239543636153804</v>
+        <v>-0.1188038940284548</v>
       </c>
       <c r="C124">
-        <v>-0.1128703427460359</v>
+        <v>-0.1945791462086675</v>
       </c>
       <c r="D124">
-        <v>0.04287154668111581</v>
+        <v>0.03886077751964397</v>
       </c>
       <c r="E124">
-        <v>0.008528674953985174</v>
+        <v>0.001284936105548871</v>
       </c>
       <c r="F124">
-        <v>-0.1015126765381817</v>
+        <v>-0.2983919787375939</v>
       </c>
       <c r="G124">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="H124">
-        <v>-298.4437225595657</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I124" t="s">
         <v>53</v>
@@ -4137,25 +4137,25 @@
         <v>43</v>
       </c>
       <c r="B125">
-        <v>-0.1288396028840435</v>
+        <v>-0.1184425451968064</v>
       </c>
       <c r="C125">
-        <v>-0.1301229652366309</v>
+        <v>-0.1585650517356499</v>
       </c>
       <c r="D125">
-        <v>0.04646909891296184</v>
+        <v>0.03896229387456984</v>
       </c>
       <c r="E125">
-        <v>0.01476070781529874</v>
+        <v>0.001959994056793557</v>
       </c>
       <c r="F125">
-        <v>0.04045758265946258</v>
+        <v>-0.2802885883279851</v>
       </c>
       <c r="G125">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H125">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I125" t="s">
         <v>53</v>
@@ -4166,25 +4166,25 @@
         <v>44</v>
       </c>
       <c r="B126">
-        <v>-0.1355811285471769</v>
+        <v>-0.118903890479796</v>
       </c>
       <c r="C126">
-        <v>-0.08652116375098524</v>
+        <v>-0.1889787878599517</v>
       </c>
       <c r="D126">
-        <v>0.04882949277542856</v>
+        <v>0.0392387055327903</v>
       </c>
       <c r="E126">
-        <v>0.01531334752124032</v>
+        <v>0.002352825009838263</v>
       </c>
       <c r="F126">
-        <v>0.04981962699288194</v>
+        <v>-0.2683028212100639</v>
       </c>
       <c r="G126">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="H126">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I126" t="s">
         <v>53</v>
@@ -4195,25 +4195,25 @@
         <v>45</v>
       </c>
       <c r="B127">
-        <v>-0.127362663610461</v>
+        <v>-0.1131335935431093</v>
       </c>
       <c r="C127">
-        <v>-0.1285174665081327</v>
+        <v>-0.1618795862818153</v>
       </c>
       <c r="D127">
-        <v>0.04577793143901619</v>
+        <v>0.03744895309258415</v>
       </c>
       <c r="E127">
-        <v>0.01410177903192208</v>
+        <v>0.00259237113575727</v>
       </c>
       <c r="F127">
-        <v>0.02667439503316016</v>
+        <v>-0.2747288887815911</v>
       </c>
       <c r="G127">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H127">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I127" t="s">
         <v>53</v>
@@ -4224,25 +4224,25 @@
         <v>46</v>
       </c>
       <c r="B128">
-        <v>-0.1362778768976949</v>
+        <v>-0.1108284994968872</v>
       </c>
       <c r="C128">
-        <v>-0.08385310851881063</v>
+        <v>-0.1467489815317507</v>
       </c>
       <c r="D128">
-        <v>0.04869727293843535</v>
+        <v>0.03641449971510465</v>
       </c>
       <c r="E128">
-        <v>0.01420800915892959</v>
+        <v>0.0017007639356678</v>
       </c>
       <c r="F128">
-        <v>0.02725673685446005</v>
+        <v>-0.307018263513631</v>
       </c>
       <c r="G128">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H128">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I128" t="s">
         <v>53</v>
@@ -4253,25 +4253,25 @@
         <v>47</v>
       </c>
       <c r="B129">
-        <v>-0.1390651528074776</v>
+        <v>-0.1101491090100146</v>
       </c>
       <c r="C129">
-        <v>-0.09615117293657428</v>
+        <v>-0.1675898902809211</v>
       </c>
       <c r="D129">
-        <v>0.04957452579830345</v>
+        <v>0.03628337502939435</v>
       </c>
       <c r="E129">
-        <v>0.01413164837738942</v>
+        <v>0.001974948682622318</v>
       </c>
       <c r="F129">
-        <v>0.02523408852284754</v>
+        <v>-0.300571038759747</v>
       </c>
       <c r="G129">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H129">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I129" t="s">
         <v>53</v>
@@ -4282,25 +4282,25 @@
         <v>48</v>
       </c>
       <c r="B130">
-        <v>-0.1395849922773947</v>
+        <v>-0.1169958729831614</v>
       </c>
       <c r="C130">
-        <v>-0.1267237768625029</v>
+        <v>-0.1629043701399393</v>
       </c>
       <c r="D130">
-        <v>0.05005983829692975</v>
+        <v>0.03866633777858599</v>
       </c>
       <c r="E130">
-        <v>0.01511153726931427</v>
+        <v>0.002492093181422133</v>
       </c>
       <c r="F130">
-        <v>0.04456380484421682</v>
+        <v>-0.2686726444842694</v>
       </c>
       <c r="G130">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H130">
-        <v>-207.1665850426745</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I130" t="s">
         <v>53</v>
@@ -4311,25 +4311,25 @@
         <v>49</v>
       </c>
       <c r="B131">
-        <v>-0.1372275481146232</v>
+        <v>-0.1088536304304059</v>
       </c>
       <c r="C131">
-        <v>-0.1013971820496784</v>
+        <v>-0.1323170503122917</v>
       </c>
       <c r="D131">
-        <v>0.04891591143239289</v>
+        <v>0.03550165271964149</v>
       </c>
       <c r="E131">
-        <v>0.01393398167940078</v>
+        <v>0.000854723726180679</v>
       </c>
       <c r="F131">
-        <v>0.02153289683541351</v>
+        <v>-0.3387435726923984</v>
       </c>
       <c r="G131">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H131">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I131" t="s">
         <v>53</v>
@@ -4340,25 +4340,25 @@
         <v>50</v>
       </c>
       <c r="B132">
-        <v>-0.1280861872580874</v>
+        <v>-0.1127573758108367</v>
       </c>
       <c r="C132">
-        <v>-0.1368050321965845</v>
+        <v>-0.1500543599020278</v>
       </c>
       <c r="D132">
-        <v>0.04612399833739519</v>
+        <v>0.03720121619848651</v>
       </c>
       <c r="E132">
-        <v>0.01444768249376176</v>
+        <v>0.002203024314459751</v>
       </c>
       <c r="F132">
-        <v>0.03397368279701942</v>
+        <v>-0.2870243820386576</v>
       </c>
       <c r="G132">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H132">
-        <v>-188.9327970866904</v>
+        <v>-256.7092673891871</v>
       </c>
       <c r="I132" t="s">
         <v>53</v>
@@ -4369,25 +4369,25 @@
         <v>51</v>
       </c>
       <c r="B133">
-        <v>-0.1083956060061853</v>
+        <v>-0.1056602560581522</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="D133">
-        <v>0.035238263105729</v>
+        <v>0.03420942111926081</v>
       </c>
       <c r="E133">
-        <v>0.0004988130563798225</v>
+        <v>5.480225988700818E-05</v>
       </c>
       <c r="F133">
-        <v>-0.3513756427604398</v>
+        <v>-0.3749223963865476</v>
       </c>
       <c r="G133">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="H133">
-        <v>-257.051282051282</v>
+        <v>-732.3943661971921</v>
       </c>
       <c r="I133" t="s">
         <v>53</v>

--- a/results/metrics.xlsx
+++ b/results/metrics.xlsx
@@ -573,7 +573,7 @@
         <v>-0.0730989394616246</v>
       </c>
       <c r="C2">
-        <v>-0.3031119329444555</v>
+        <v>-0.3031119329444557</v>
       </c>
       <c r="D2">
         <v>0.02406292780977991</v>
@@ -582,7 +582,7 @@
         <v>0.001261097437141139</v>
       </c>
       <c r="F2">
-        <v>-0.4828831744677865</v>
+        <v>0.05030913006658216</v>
       </c>
       <c r="G2">
         <v>270</v>
@@ -602,7 +602,7 @@
         <v>-0.07294055048036252</v>
       </c>
       <c r="C3">
-        <v>-0.3081061038202823</v>
+        <v>-0.3081061038202822</v>
       </c>
       <c r="D3">
         <v>0.02412956148224999</v>
@@ -611,7 +611,7 @@
         <v>0.001625399945748858</v>
       </c>
       <c r="F3">
-        <v>-0.4664519273359987</v>
+        <v>0.06526796911461574</v>
       </c>
       <c r="G3">
         <v>270</v>
@@ -640,7 +640,7 @@
         <v>0.001695148932733263</v>
       </c>
       <c r="F4">
-        <v>-0.3901601211938959</v>
+        <v>0.0573662111958281</v>
       </c>
       <c r="G4">
         <v>270</v>
@@ -660,7 +660,7 @@
         <v>-0.06890896309501249</v>
       </c>
       <c r="C5">
-        <v>-0.2956731957528614</v>
+        <v>-0.2956731957528611</v>
       </c>
       <c r="D5">
         <v>0.0227926267446579</v>
@@ -669,7 +669,7 @@
         <v>0.001525548413753737</v>
       </c>
       <c r="F5">
-        <v>-0.4981932147783055</v>
+        <v>0.06471548707843906</v>
       </c>
       <c r="G5">
         <v>270</v>
@@ -689,7 +689,7 @@
         <v>-0.07196637499426983</v>
       </c>
       <c r="C6">
-        <v>-0.2906538954668946</v>
+        <v>-0.2906538954668945</v>
       </c>
       <c r="D6">
         <v>0.02366719626128641</v>
@@ -698,7 +698,7 @@
         <v>0.001170759488771582</v>
       </c>
       <c r="F6">
-        <v>-0.4947743191406135</v>
+        <v>0.04733332179392454</v>
       </c>
       <c r="G6">
         <v>270</v>
@@ -718,16 +718,16 @@
         <v>-0.07665389607313233</v>
       </c>
       <c r="C7">
-        <v>-0.3218146572418988</v>
+        <v>-0.3218146572418991</v>
       </c>
       <c r="D7">
         <v>0.0252428704753464</v>
       </c>
       <c r="E7">
-        <v>0.001352437770192642</v>
+        <v>0.001352437770192643</v>
       </c>
       <c r="F7">
-        <v>-0.45669301539947</v>
+        <v>0.0515759607960605</v>
       </c>
       <c r="G7">
         <v>270</v>
@@ -747,7 +747,7 @@
         <v>-0.07353234457744806</v>
       </c>
       <c r="C8">
-        <v>-0.3181345181765573</v>
+        <v>-0.3181345181765572</v>
       </c>
       <c r="D8">
         <v>0.02425333994413989</v>
@@ -756,7 +756,7 @@
         <v>0.001416110050403223</v>
       </c>
       <c r="F8">
-        <v>-0.4727006829128991</v>
+        <v>0.0563055472513193</v>
       </c>
       <c r="G8">
         <v>270</v>
@@ -782,10 +782,10 @@
         <v>0.02705001074596552</v>
       </c>
       <c r="E9">
-        <v>0.001826133972152425</v>
+        <v>0.001826133972152424</v>
       </c>
       <c r="F9">
-        <v>-0.4086706854418973</v>
+        <v>0.06564217355222721</v>
       </c>
       <c r="G9">
         <v>310</v>
@@ -805,16 +805,16 @@
         <v>-0.07523087635946124</v>
       </c>
       <c r="C10">
-        <v>-0.3121804320759423</v>
+        <v>-0.3121804320759422</v>
       </c>
       <c r="D10">
         <v>0.02477093668614515</v>
       </c>
       <c r="E10">
-        <v>0.001317072442101988</v>
+        <v>0.001317072442101989</v>
       </c>
       <c r="F10">
-        <v>-0.4668215864958629</v>
+        <v>0.05113088721567219</v>
       </c>
       <c r="G10">
         <v>270</v>
@@ -834,7 +834,7 @@
         <v>-0.07701942719346622</v>
       </c>
       <c r="C11">
-        <v>-0.3315179416415865</v>
+        <v>-0.3315179416415866</v>
       </c>
       <c r="D11">
         <v>0.0254523159675253</v>
@@ -843,7 +843,7 @@
         <v>0.001634141876171461</v>
       </c>
       <c r="F11">
-        <v>-0.4418670011442133</v>
+        <v>0.0622194619152094</v>
       </c>
       <c r="G11">
         <v>270</v>
@@ -863,22 +863,22 @@
         <v>-0.07783935591395752</v>
       </c>
       <c r="C12">
-        <v>-0.3166826007558953</v>
+        <v>-0.3166826007558954</v>
       </c>
       <c r="D12">
         <v>0.02562775599130851</v>
       </c>
       <c r="E12">
-        <v>0.00135636358496975</v>
+        <v>0.001356363584969749</v>
       </c>
       <c r="F12">
-        <v>-0.449681073280684</v>
+        <v>0.05095456321796085</v>
       </c>
       <c r="G12">
         <v>270</v>
       </c>
       <c r="H12">
-        <v>-359.1376077079768</v>
+        <v>-359.1376077079767</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
@@ -892,7 +892,7 @@
         <v>-0.06770009180192493</v>
       </c>
       <c r="C13">
-        <v>-0.2797984465292734</v>
+        <v>-0.2797984465292735</v>
       </c>
       <c r="D13">
         <v>0.02231030639763969</v>
@@ -901,7 +901,7 @@
         <v>0.001243937788563647</v>
       </c>
       <c r="F13">
-        <v>-0.5215859616156728</v>
+        <v>0.05349210786785793</v>
       </c>
       <c r="G13">
         <v>270</v>
@@ -921,7 +921,7 @@
         <v>-0.07070921036311928</v>
       </c>
       <c r="C14">
-        <v>-0.2973979978766177</v>
+        <v>-0.2973979978766176</v>
       </c>
       <c r="D14">
         <v>0.02329487097205583</v>
@@ -930,13 +930,13 @@
         <v>0.001277352482738576</v>
       </c>
       <c r="F14">
-        <v>-0.4981065547045717</v>
+        <v>0.05266567099831249</v>
       </c>
       <c r="G14">
         <v>270</v>
       </c>
       <c r="H14">
-        <v>-365.1966303507524</v>
+        <v>-365.1966303507519</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -959,7 +959,7 @@
         <v>0.001325821277268082</v>
       </c>
       <c r="F15">
-        <v>-0.5202658048359711</v>
+        <v>0.05742169199691226</v>
       </c>
       <c r="G15">
         <v>270</v>
@@ -988,7 +988,7 @@
         <v>0.001319707764002592</v>
       </c>
       <c r="F16">
-        <v>-0.5199306435214194</v>
+        <v>0.05707941237559193</v>
       </c>
       <c r="G16">
         <v>270</v>
@@ -1008,7 +1008,7 @@
         <v>-0.0679354761716241</v>
       </c>
       <c r="C17">
-        <v>-0.2706351126400577</v>
+        <v>-0.2706351126400576</v>
       </c>
       <c r="D17">
         <v>0.02244591293096714</v>
@@ -1017,7 +1017,7 @@
         <v>0.001427609109080435</v>
       </c>
       <c r="F17">
-        <v>-0.5102519701943317</v>
+        <v>0.06135177665259504</v>
       </c>
       <c r="G17">
         <v>270</v>
@@ -1037,7 +1037,7 @@
         <v>-0.05934636864025145</v>
       </c>
       <c r="C18">
-        <v>-0.2707654418759345</v>
+        <v>-0.2707654418759344</v>
       </c>
       <c r="D18">
         <v>0.01961013181061066</v>
@@ -1046,7 +1046,7 @@
         <v>0.001253494209106708</v>
       </c>
       <c r="F18">
-        <v>-0.5929172892922059</v>
+        <v>0.0613449082621491</v>
       </c>
       <c r="G18">
         <v>270</v>
@@ -1066,16 +1066,16 @@
         <v>-0.07478101973730567</v>
       </c>
       <c r="C19">
-        <v>-0.302565798037717</v>
+        <v>-0.3025657980377168</v>
       </c>
       <c r="D19">
-        <v>0.02472025698619451</v>
+        <v>0.0247202569861945</v>
       </c>
       <c r="E19">
-        <v>0.001610317018203148</v>
+        <v>0.001610317018203146</v>
       </c>
       <c r="F19">
-        <v>-0.4559161093271741</v>
+        <v>0.06309823344061932</v>
       </c>
       <c r="G19">
         <v>255</v>
@@ -1095,7 +1095,7 @@
         <v>-0.06588576521154099</v>
       </c>
       <c r="C20">
-        <v>-0.287946512038645</v>
+        <v>-0.2879465120386452</v>
       </c>
       <c r="D20">
         <v>0.02172577012395538</v>
@@ -1104,7 +1104,7 @@
         <v>0.001251911501881364</v>
       </c>
       <c r="F20">
-        <v>-0.5352523218596198</v>
+        <v>0.0552983403051166</v>
       </c>
       <c r="G20">
         <v>270</v>
@@ -1121,7 +1121,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0581926336721198</v>
+        <v>-0.05819263367211958</v>
       </c>
       <c r="C21">
         <v>-0.256269956506236</v>
@@ -1133,7 +1133,7 @@
         <v>0.001124040914132087</v>
       </c>
       <c r="F21">
-        <v>-0.612487928897011</v>
+        <v>0.05592781955600658</v>
       </c>
       <c r="G21">
         <v>270</v>
@@ -1153,7 +1153,7 @@
         <v>-0.08175369147528333</v>
       </c>
       <c r="C22">
-        <v>-0.3087892536233707</v>
+        <v>-0.3087892536233705</v>
       </c>
       <c r="D22">
         <v>0.02692488789558375</v>
@@ -1162,7 +1162,7 @@
         <v>0.001450466939596337</v>
       </c>
       <c r="F22">
-        <v>-0.4245222304972084</v>
+        <v>0.05199481137486236</v>
       </c>
       <c r="G22">
         <v>270</v>
@@ -1182,7 +1182,7 @@
         <v>-0.07536388155876461</v>
       </c>
       <c r="C23">
-        <v>-0.3170617841495669</v>
+        <v>-0.317061784149567</v>
       </c>
       <c r="D23">
         <v>0.02490111734525368</v>
@@ -1191,7 +1191,7 @@
         <v>0.001586355721214039</v>
       </c>
       <c r="F23">
-        <v>-0.4535669836460401</v>
+        <v>0.06167768408716151</v>
       </c>
       <c r="G23">
         <v>270</v>
@@ -1217,10 +1217,10 @@
         <v>0.0281647943128519</v>
       </c>
       <c r="E24">
-        <v>0.002168722748500773</v>
+        <v>0.002168722748500774</v>
       </c>
       <c r="F24">
-        <v>-0.3803314711774085</v>
+        <v>0.07520773107006384</v>
       </c>
       <c r="G24">
         <v>277</v>
@@ -1240,7 +1240,7 @@
         <v>-0.07645315401021935</v>
       </c>
       <c r="C25">
-        <v>-0.322675156174875</v>
+        <v>-0.3226751561748749</v>
       </c>
       <c r="D25">
         <v>0.02525902192264685</v>
@@ -1249,13 +1249,13 @@
         <v>0.001603091557344967</v>
       </c>
       <c r="F25">
-        <v>-0.4464776538897003</v>
+        <v>0.06146631844746148</v>
       </c>
       <c r="G25">
         <v>270</v>
       </c>
       <c r="H25">
-        <v>-341.7485057658134</v>
+        <v>-341.7485057658133</v>
       </c>
       <c r="I25" t="s">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         <v>-0.08369923216402708</v>
       </c>
       <c r="C26">
-        <v>-0.3278100478275314</v>
+        <v>-0.3278100478275312</v>
       </c>
       <c r="D26">
         <v>0.02753363490280653</v>
@@ -1278,7 +1278,7 @@
         <v>0.001386095918855357</v>
       </c>
       <c r="F26">
-        <v>-0.4174742828775518</v>
+        <v>0.04850734207066409</v>
       </c>
       <c r="G26">
         <v>270</v>
@@ -1298,16 +1298,16 @@
         <v>-0.07994297837836306</v>
       </c>
       <c r="C27">
-        <v>-0.3293814423245884</v>
+        <v>-0.3293814423245883</v>
       </c>
       <c r="D27">
         <v>0.02636172218887807</v>
       </c>
       <c r="E27">
-        <v>0.001520867175928807</v>
+        <v>0.001520867175928806</v>
       </c>
       <c r="F27">
-        <v>-0.430920755009728</v>
+        <v>0.05577612468630749</v>
       </c>
       <c r="G27">
         <v>270</v>
@@ -1327,16 +1327,16 @@
         <v>-0.06430238331616556</v>
       </c>
       <c r="C28">
-        <v>-0.2672998424720773</v>
+        <v>-0.2672998424720771</v>
       </c>
       <c r="D28">
         <v>0.02122412347507522</v>
       </c>
       <c r="E28">
-        <v>0.001285088716606507</v>
+        <v>0.001285088716606508</v>
       </c>
       <c r="F28">
-        <v>-0.5463401917128755</v>
+        <v>0.05816853854436917</v>
       </c>
       <c r="G28">
         <v>270</v>
@@ -1356,22 +1356,22 @@
         <v>-0.09241687371316532</v>
       </c>
       <c r="C29">
-        <v>-0.3643174005776038</v>
+        <v>-0.364317400577604</v>
       </c>
       <c r="D29">
         <v>0.0306171671882581</v>
       </c>
       <c r="E29">
-        <v>0.002197285455331034</v>
+        <v>0.002197285455331033</v>
       </c>
       <c r="F29">
-        <v>-0.3489347947801966</v>
+        <v>0.07011664305697722</v>
       </c>
       <c r="G29">
         <v>270</v>
       </c>
       <c r="H29">
-        <v>-444.133403950634</v>
+        <v>-444.1334039506344</v>
       </c>
       <c r="I29" t="s">
         <v>4</v>
@@ -1394,7 +1394,7 @@
         <v>0.00126269816478496</v>
       </c>
       <c r="F30">
-        <v>-0.5137218850002347</v>
+        <v>0.05360021267946499</v>
       </c>
       <c r="G30">
         <v>270</v>
@@ -1420,10 +1420,10 @@
         <v>0.0256381145264573</v>
       </c>
       <c r="E31">
-        <v>0.001163395900885216</v>
+        <v>0.001163395900885217</v>
       </c>
       <c r="F31">
-        <v>-0.4570259834021707</v>
+        <v>0.04340738191026607</v>
       </c>
       <c r="G31">
         <v>270</v>
@@ -1443,7 +1443,7 @@
         <v>-0.08197158932921922</v>
       </c>
       <c r="C32">
-        <v>-0.3273331137955154</v>
+        <v>-0.3273331137955152</v>
       </c>
       <c r="D32">
         <v>0.02698545341970693</v>
@@ -1452,7 +1452,7 @@
         <v>0.001419730624945863</v>
       </c>
       <c r="F32">
-        <v>-0.424708438347057</v>
+        <v>0.05073911975738035</v>
       </c>
       <c r="G32">
         <v>270</v>
@@ -1472,7 +1472,7 @@
         <v>-0.08947178600050687</v>
       </c>
       <c r="C33">
-        <v>-0.3476476328714483</v>
+        <v>-0.3476476328714481</v>
       </c>
       <c r="D33">
         <v>0.02944641832550332</v>
@@ -1481,7 +1481,7 @@
         <v>0.001524487209895429</v>
       </c>
       <c r="F33">
-        <v>-0.3856561796239205</v>
+        <v>0.05005616375566758</v>
       </c>
       <c r="G33">
         <v>274</v>
@@ -1498,19 +1498,19 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.08202238820298291</v>
+        <v>-0.0820223882029828</v>
       </c>
       <c r="C34">
-        <v>-0.3181650501429039</v>
+        <v>-0.3181650501429038</v>
       </c>
       <c r="D34">
-        <v>0.02697579346389103</v>
+        <v>0.02697579346389102</v>
       </c>
       <c r="E34">
-        <v>0.001339080243643738</v>
+        <v>0.001339080243643739</v>
       </c>
       <c r="F34">
-        <v>-0.4278502568134775</v>
+        <v>0.04776755772512982</v>
       </c>
       <c r="G34">
         <v>270</v>
@@ -1530,7 +1530,7 @@
         <v>-0.08625276371843005</v>
       </c>
       <c r="C35">
-        <v>-0.3335475031007032</v>
+        <v>-0.3335475031007033</v>
       </c>
       <c r="D35">
         <v>0.02834498164741384</v>
@@ -1539,13 +1539,13 @@
         <v>0.001339814286141993</v>
       </c>
       <c r="F35">
-        <v>-0.4071572972716256</v>
+        <v>0.04548606980959126</v>
       </c>
       <c r="G35">
         <v>270</v>
       </c>
       <c r="H35">
-        <v>-393.0737298644308</v>
+        <v>-393.0737298644306</v>
       </c>
       <c r="I35" t="s">
         <v>4</v>
@@ -1559,7 +1559,7 @@
         <v>-0.1258346920673352</v>
       </c>
       <c r="C36">
-        <v>-0.4348098150184742</v>
+        <v>-0.4348098150184744</v>
       </c>
       <c r="D36">
         <v>0.04180908355631254</v>
@@ -1568,13 +1568,13 @@
         <v>0.003365088629651299</v>
       </c>
       <c r="F36">
-        <v>-0.2275962773125371</v>
+        <v>0.07927885223819271</v>
       </c>
       <c r="G36">
         <v>134</v>
       </c>
       <c r="H36">
-        <v>-234.6338816311783</v>
+        <v>-234.6338816311784</v>
       </c>
       <c r="I36" t="s">
         <v>4</v>
@@ -1597,7 +1597,7 @@
         <v>0.001569077766833402</v>
       </c>
       <c r="F37">
-        <v>-0.3898113650796188</v>
+        <v>0.05233157753260468</v>
       </c>
       <c r="G37">
         <v>270</v>
@@ -1617,16 +1617,16 @@
         <v>-0.06931260718340515</v>
       </c>
       <c r="C38">
-        <v>-0.2962734360101153</v>
+        <v>-0.2962734360101154</v>
       </c>
       <c r="D38">
         <v>0.02295054420696976</v>
       </c>
       <c r="E38">
-        <v>0.001609905969105426</v>
+        <v>0.001609905969105428</v>
       </c>
       <c r="F38">
-        <v>-0.4910896375341129</v>
+        <v>0.06794581787980944</v>
       </c>
       <c r="G38">
         <v>270</v>
@@ -1646,7 +1646,7 @@
         <v>-0.09247590382917337</v>
       </c>
       <c r="C39">
-        <v>-0.3510828746478599</v>
+        <v>-0.35108287464786</v>
       </c>
       <c r="D39">
         <v>0.0304992020461354</v>
@@ -1655,7 +1655,7 @@
         <v>0.001773715646133743</v>
       </c>
       <c r="F39">
-        <v>-0.3641723066059848</v>
+        <v>0.05649994289525839</v>
       </c>
       <c r="G39">
         <v>274</v>
@@ -1675,7 +1675,7 @@
         <v>-0.06551941625917446</v>
       </c>
       <c r="C40">
-        <v>-0.2775372784424193</v>
+        <v>-0.277537278442419</v>
       </c>
       <c r="D40">
         <v>0.02153294712258578</v>
@@ -1684,7 +1684,7 @@
         <v>0.001022392586043519</v>
       </c>
       <c r="F40">
-        <v>-0.5507043579016285</v>
+        <v>0.04513456092816833</v>
       </c>
       <c r="G40">
         <v>270</v>
@@ -1704,16 +1704,16 @@
         <v>-0.06720376976973541</v>
       </c>
       <c r="C41">
-        <v>-0.2751040350601141</v>
+        <v>-0.275104035060114</v>
       </c>
       <c r="D41">
         <v>0.02214536749993678</v>
       </c>
       <c r="E41">
-        <v>0.001230560310527995</v>
+        <v>0.001230560310527994</v>
       </c>
       <c r="F41">
-        <v>-0.5260748142663294</v>
+        <v>0.0532864418870095</v>
       </c>
       <c r="G41">
         <v>270</v>
@@ -1733,7 +1733,7 @@
         <v>-0.07755393793818477</v>
       </c>
       <c r="C42">
-        <v>-0.3175359175279881</v>
+        <v>-0.317535917527988</v>
       </c>
       <c r="D42">
         <v>0.02545316065047238</v>
@@ -1742,7 +1742,7 @@
         <v>0.00110224139798438</v>
       </c>
       <c r="F42">
-        <v>-0.4627495645305593</v>
+        <v>0.04132017002724241</v>
       </c>
       <c r="G42">
         <v>270</v>
@@ -1762,7 +1762,7 @@
         <v>-0.0730989394616246</v>
       </c>
       <c r="C43">
-        <v>-0.3031119329444555</v>
+        <v>-0.3031119329444557</v>
       </c>
       <c r="D43">
         <v>0.02406292780977991</v>
@@ -1771,7 +1771,7 @@
         <v>0.001261097437141139</v>
       </c>
       <c r="F43">
-        <v>-0.4828831744677865</v>
+        <v>0.05030913006658216</v>
       </c>
       <c r="G43">
         <v>270</v>
@@ -1797,10 +1797,10 @@
         <v>0.0274258861432575</v>
       </c>
       <c r="E44">
-        <v>0.001525239772329537</v>
+        <v>0.001525239772329536</v>
       </c>
       <c r="F44">
-        <v>-0.4140409747664243</v>
+        <v>0.0537713637564978</v>
       </c>
       <c r="G44">
         <v>270</v>
@@ -1820,7 +1820,7 @@
         <v>-0.1056602560581522</v>
       </c>
       <c r="C45">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D45">
         <v>0.03420942111926081</v>
@@ -1829,7 +1829,7 @@
         <v>5.480225988700818E-05</v>
       </c>
       <c r="F45">
-        <v>-0.3749223963865476</v>
+        <v>0.0001253978456960338</v>
       </c>
       <c r="G45">
         <v>355</v>
@@ -1846,25 +1846,25 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>-0.09345983887319209</v>
+        <v>-0.09397172756399652</v>
       </c>
       <c r="C46">
-        <v>-0.3039595101965676</v>
+        <v>-0.3034557705587582</v>
       </c>
       <c r="D46">
-        <v>0.03084001296238299</v>
+        <v>0.03101399749206474</v>
       </c>
       <c r="E46">
-        <v>0.001842965505797919</v>
+        <v>0.001868729429389586</v>
       </c>
       <c r="F46">
-        <v>-0.3579024079069663</v>
+        <v>0.05862568853559272</v>
       </c>
       <c r="G46">
         <v>229</v>
       </c>
       <c r="H46">
-        <v>-397.9752970321281</v>
+        <v>-397.9752970321191</v>
       </c>
       <c r="I46" t="s">
         <v>52</v>
@@ -1875,25 +1875,25 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>-0.09413368552720014</v>
+        <v>-0.0941320220048143</v>
       </c>
       <c r="C47">
-        <v>-0.3241504964181013</v>
+        <v>-0.3241325779308976</v>
       </c>
       <c r="D47">
-        <v>0.03124004437811726</v>
+        <v>0.03123951090634727</v>
       </c>
       <c r="E47">
-        <v>0.002405308856174018</v>
+        <v>0.002405323826861741</v>
       </c>
       <c r="F47">
-        <v>-0.3353187153626617</v>
+        <v>0.07537926447520482</v>
       </c>
       <c r="G47">
         <v>308</v>
       </c>
       <c r="H47">
-        <v>-380.7915961111867</v>
+        <v>-380.7915960807569</v>
       </c>
       <c r="I47" t="s">
         <v>52</v>
@@ -1904,25 +1904,25 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>-0.09537419837720251</v>
+        <v>-0.09537418986250357</v>
       </c>
       <c r="C48">
-        <v>-0.336360388047669</v>
+        <v>-0.3363842238511031</v>
       </c>
       <c r="D48">
-        <v>0.03171627736289144</v>
+        <v>0.0317161491002589</v>
       </c>
       <c r="E48">
-        <v>0.002636466560983502</v>
+        <v>0.002636078714351757</v>
       </c>
       <c r="F48">
-        <v>-0.3229954678073044</v>
+        <v>0.08152207362887276</v>
       </c>
       <c r="G48">
         <v>308</v>
       </c>
       <c r="H48">
-        <v>-310.3866543107021</v>
+        <v>-310.3861214060835</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
@@ -1933,25 +1933,25 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>-0.09144118971576976</v>
+        <v>-0.09089146476115773</v>
       </c>
       <c r="C49">
-        <v>-0.3374374321280302</v>
+        <v>-0.3330778854078901</v>
       </c>
       <c r="D49">
-        <v>0.03030784953497576</v>
+        <v>0.03012465725439022</v>
       </c>
       <c r="E49">
-        <v>0.002217106047685634</v>
+        <v>0.002200724298591643</v>
       </c>
       <c r="F49">
-        <v>-0.3518419987180307</v>
+        <v>0.07137713827771891</v>
       </c>
       <c r="G49">
         <v>308</v>
       </c>
       <c r="H49">
-        <v>-380.7915960805577</v>
+        <v>-380.7915960805618</v>
       </c>
       <c r="I49" t="s">
         <v>52</v>
@@ -1962,25 +1962,25 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>-0.08774674684254191</v>
+        <v>-0.08969226011514775</v>
       </c>
       <c r="C50">
-        <v>-0.3382689672558122</v>
+        <v>-0.3463294086426458</v>
       </c>
       <c r="D50">
-        <v>0.02922125133130143</v>
+        <v>0.02985990700819065</v>
       </c>
       <c r="E50">
-        <v>0.002553708048094982</v>
+        <v>0.002581789180729731</v>
       </c>
       <c r="F50">
-        <v>-0.3534062330095952</v>
+        <v>0.0847717545757678</v>
       </c>
       <c r="G50">
         <v>279</v>
       </c>
       <c r="H50">
-        <v>-334.536757055258</v>
+        <v>-334.5367570552071</v>
       </c>
       <c r="I50" t="s">
         <v>52</v>
@@ -1991,25 +1991,25 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>-0.09466238695343798</v>
+        <v>-0.09581685045149724</v>
       </c>
       <c r="C51">
-        <v>-0.3318306169824272</v>
+        <v>-0.3307762932257308</v>
       </c>
       <c r="D51">
-        <v>0.03135818413648278</v>
+        <v>0.03176085439665284</v>
       </c>
       <c r="E51">
-        <v>0.002241686727880149</v>
+        <v>0.002331567876531428</v>
       </c>
       <c r="F51">
-        <v>-0.3392732701208633</v>
+        <v>0.07181971164464881</v>
       </c>
       <c r="G51">
         <v>308</v>
       </c>
       <c r="H51">
-        <v>-380.7915704682615</v>
+        <v>-277.4992202555179</v>
       </c>
       <c r="I51" t="s">
         <v>52</v>
@@ -2020,25 +2020,25 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>-0.09080411117412224</v>
+        <v>-0.09108384971989081</v>
       </c>
       <c r="C52">
-        <v>-0.3143483179079188</v>
+        <v>-0.3163717662246298</v>
       </c>
       <c r="D52">
-        <v>0.03010305166996013</v>
+        <v>0.03023677393275726</v>
       </c>
       <c r="E52">
-        <v>0.002221311610627532</v>
+        <v>0.002354805921408474</v>
       </c>
       <c r="F52">
-        <v>-0.3540959538306978</v>
+        <v>0.07620831026341582</v>
       </c>
       <c r="G52">
         <v>308</v>
       </c>
       <c r="H52">
-        <v>-300.899233728265</v>
+        <v>-300.8992337318714</v>
       </c>
       <c r="I52" t="s">
         <v>52</v>
@@ -2049,25 +2049,25 @@
         <v>15</v>
       </c>
       <c r="B53">
-        <v>-0.09490766928323024</v>
+        <v>-0.09490834447851915</v>
       </c>
       <c r="C53">
-        <v>-0.3463501840743932</v>
+        <v>-0.3463519433824532</v>
       </c>
       <c r="D53">
-        <v>0.03147351552353513</v>
+        <v>0.03147376169751145</v>
       </c>
       <c r="E53">
-        <v>0.002352805176272162</v>
+        <v>0.002352890715757856</v>
       </c>
       <c r="F53">
-        <v>-0.3344995007237813</v>
+        <v>0.0731523059019588</v>
       </c>
       <c r="G53">
         <v>169</v>
       </c>
       <c r="H53">
-        <v>-280.2815345995242</v>
+        <v>-280.2815345609295</v>
       </c>
       <c r="I53" t="s">
         <v>52</v>
@@ -2078,25 +2078,25 @@
         <v>16</v>
       </c>
       <c r="B54">
-        <v>-0.0880377860820275</v>
+        <v>-0.0880396609762244</v>
       </c>
       <c r="C54">
-        <v>-0.3042759980917609</v>
+        <v>-0.304246186583206</v>
       </c>
       <c r="D54">
-        <v>0.02930556041013717</v>
+        <v>0.02930618529605707</v>
       </c>
       <c r="E54">
-        <v>0.002523203447730862</v>
+        <v>0.002523259596191416</v>
       </c>
       <c r="F54">
-        <v>-0.353430434778623</v>
+        <v>0.0843762877711676</v>
       </c>
       <c r="G54">
         <v>368</v>
       </c>
       <c r="H54">
-        <v>-258.4727859605381</v>
+        <v>-258.4727859613742</v>
       </c>
       <c r="I54" t="s">
         <v>52</v>
@@ -2107,25 +2107,25 @@
         <v>17</v>
       </c>
       <c r="B55">
-        <v>-0.09070502960172722</v>
+        <v>-0.09070732009350591</v>
       </c>
       <c r="C55">
-        <v>-0.310823123239747</v>
+        <v>-0.3108558823657688</v>
       </c>
       <c r="D55">
-        <v>0.03015317476011518</v>
+        <v>0.03015393474546076</v>
       </c>
       <c r="E55">
-        <v>0.002475285175504677</v>
+        <v>0.002475343214993196</v>
       </c>
       <c r="F55">
-        <v>-0.3450845661258793</v>
+        <v>0.08041506898803896</v>
       </c>
       <c r="G55">
         <v>169</v>
       </c>
       <c r="H55">
-        <v>-300.8992337254828</v>
+        <v>-300.8992337258545</v>
       </c>
       <c r="I55" t="s">
         <v>52</v>
@@ -2136,25 +2136,25 @@
         <v>18</v>
       </c>
       <c r="B56">
-        <v>-0.08808046051004448</v>
+        <v>-0.08824516996422505</v>
       </c>
       <c r="C56">
-        <v>-0.3197336370216524</v>
+        <v>-0.3178643297539309</v>
       </c>
       <c r="D56">
-        <v>0.02920199401847162</v>
+        <v>0.02930674021851924</v>
       </c>
       <c r="E56">
-        <v>0.00216048481035577</v>
+        <v>0.002319465447510626</v>
       </c>
       <c r="F56">
-        <v>-0.3671049171429885</v>
+        <v>0.07742085808303942</v>
       </c>
       <c r="G56">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="H56">
-        <v>-243.0174038289798</v>
+        <v>-243.0174038290132</v>
       </c>
       <c r="I56" t="s">
         <v>52</v>
@@ -2165,25 +2165,25 @@
         <v>19</v>
       </c>
       <c r="B57">
-        <v>-0.09421489410169503</v>
+        <v>-0.09421798162286354</v>
       </c>
       <c r="C57">
-        <v>-0.3340493244225994</v>
+        <v>-0.3340607020346921</v>
       </c>
       <c r="D57">
-        <v>0.03119183394104108</v>
+        <v>0.03119256361447601</v>
       </c>
       <c r="E57">
-        <v>0.002175118831531829</v>
+        <v>0.002174286170784885</v>
       </c>
       <c r="F57">
-        <v>-0.3432168045527783</v>
+        <v>0.06808589780748667</v>
       </c>
       <c r="G57">
         <v>138</v>
       </c>
       <c r="H57">
-        <v>-388.5760345891936</v>
+        <v>-388.5760345892548</v>
       </c>
       <c r="I57" t="s">
         <v>52</v>
@@ -2194,25 +2194,25 @@
         <v>20</v>
       </c>
       <c r="B58">
-        <v>-0.09576531217332707</v>
+        <v>-0.09578873490025841</v>
       </c>
       <c r="C58">
-        <v>-0.379300464835724</v>
+        <v>-0.3793885229923019</v>
       </c>
       <c r="D58">
-        <v>0.03170617179288135</v>
+        <v>0.03171660976910746</v>
       </c>
       <c r="E58">
-        <v>0.002214124205941683</v>
+        <v>0.002222957250355123</v>
       </c>
       <c r="F58">
-        <v>-0.3364189240080383</v>
+        <v>0.06849549160500054</v>
       </c>
       <c r="G58">
         <v>139</v>
       </c>
       <c r="H58">
-        <v>-367.1408127475917</v>
+        <v>-367.0140817833754</v>
       </c>
       <c r="I58" t="s">
         <v>52</v>
@@ -2223,25 +2223,25 @@
         <v>21</v>
       </c>
       <c r="B59">
-        <v>-0.0932731503275861</v>
+        <v>-0.09292372284762251</v>
       </c>
       <c r="C59">
-        <v>-0.3340922349436481</v>
+        <v>-0.3317126759688016</v>
       </c>
       <c r="D59">
-        <v>0.03091680078257316</v>
+        <v>0.03078376522297181</v>
       </c>
       <c r="E59">
-        <v>0.002266946254075872</v>
+        <v>0.002205262949890144</v>
       </c>
       <c r="F59">
-        <v>-0.3432998849228799</v>
+        <v>0.06999632637875167</v>
       </c>
       <c r="G59">
         <v>168</v>
       </c>
       <c r="H59">
-        <v>-388.5760345442102</v>
+        <v>-388.5760345901986</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
@@ -2252,25 +2252,25 @@
         <v>22</v>
       </c>
       <c r="B60">
-        <v>-0.09144521872258959</v>
+        <v>-0.09144120720906956</v>
       </c>
       <c r="C60">
-        <v>-0.3234151305070135</v>
+        <v>-0.3233950735152931</v>
       </c>
       <c r="D60">
-        <v>0.03039378741428971</v>
+        <v>0.03039254184043017</v>
       </c>
       <c r="E60">
-        <v>0.0024786450518451</v>
+        <v>0.002478807452784713</v>
       </c>
       <c r="F60">
-        <v>-0.3422421566382741</v>
+        <v>0.07989772600652607</v>
       </c>
       <c r="G60">
         <v>138</v>
       </c>
       <c r="H60">
-        <v>-323.7481969624634</v>
+        <v>-323.7481969663633</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
@@ -2281,25 +2281,25 @@
         <v>23</v>
       </c>
       <c r="B61">
-        <v>-0.09220520298129642</v>
+        <v>-0.0940482142892709</v>
       </c>
       <c r="C61">
-        <v>-0.3300376683241493</v>
+        <v>-0.3390240769938912</v>
       </c>
       <c r="D61">
-        <v>0.03066727030299462</v>
+        <v>0.03127690238771364</v>
       </c>
       <c r="E61">
-        <v>0.002563786450998284</v>
+        <v>0.002604679906099145</v>
       </c>
       <c r="F61">
-        <v>-0.3364138331187281</v>
+        <v>0.08166305608724034</v>
       </c>
       <c r="G61">
         <v>168</v>
       </c>
       <c r="H61">
-        <v>-279.5452258174145</v>
+        <v>-292.0046852006822</v>
       </c>
       <c r="I61" t="s">
         <v>52</v>
@@ -2310,25 +2310,25 @@
         <v>24</v>
       </c>
       <c r="B62">
-        <v>-0.08885619758932317</v>
+        <v>-0.08875685672640321</v>
       </c>
       <c r="C62">
-        <v>-0.3296387738009769</v>
+        <v>-0.3286765596505923</v>
       </c>
       <c r="D62">
-        <v>0.02949654296684832</v>
+        <v>0.02947538457849763</v>
       </c>
       <c r="E62">
-        <v>0.002294972407098542</v>
+        <v>0.002328928934790656</v>
       </c>
       <c r="F62">
-        <v>-0.3588796154761513</v>
+        <v>0.07729895623742335</v>
       </c>
       <c r="G62">
         <v>135</v>
       </c>
       <c r="H62">
-        <v>-565.1380689939439</v>
+        <v>-565.13806899407</v>
       </c>
       <c r="I62" t="s">
         <v>52</v>
@@ -2339,25 +2339,25 @@
         <v>25</v>
       </c>
       <c r="B63">
-        <v>-0.09589914831863033</v>
+        <v>-0.09602118839477913</v>
       </c>
       <c r="C63">
-        <v>-0.3579942015895315</v>
+        <v>-0.3583264488349096</v>
       </c>
       <c r="D63">
-        <v>0.03183410801389976</v>
+        <v>0.03187312005335551</v>
       </c>
       <c r="E63">
-        <v>0.002475640703958333</v>
+        <v>0.002474156892465162</v>
       </c>
       <c r="F63">
-        <v>-0.3268519317838384</v>
+        <v>0.07604038814624499</v>
       </c>
       <c r="G63">
         <v>138</v>
       </c>
       <c r="H63">
-        <v>-276.9559158067174</v>
+        <v>-277.220764780618</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
@@ -2368,25 +2368,25 @@
         <v>26</v>
       </c>
       <c r="B64">
-        <v>-0.09810611611894093</v>
+        <v>-0.09839822802569964</v>
       </c>
       <c r="C64">
-        <v>-0.3687760003429308</v>
+        <v>-0.3710253704147292</v>
       </c>
       <c r="D64">
-        <v>0.03239032503489724</v>
+        <v>0.03249386152977993</v>
       </c>
       <c r="E64">
-        <v>0.001987512711174692</v>
+        <v>0.002015352625769803</v>
       </c>
       <c r="F64">
-        <v>-0.3363093047694298</v>
+        <v>0.06046804107270923</v>
       </c>
       <c r="G64">
         <v>135</v>
       </c>
       <c r="H64">
-        <v>-322.8491180492831</v>
+        <v>-322.8373171153813</v>
       </c>
       <c r="I64" t="s">
         <v>52</v>
@@ -2397,25 +2397,25 @@
         <v>27</v>
       </c>
       <c r="B65">
-        <v>-0.08849552258108129</v>
+        <v>-0.09169143628518095</v>
       </c>
       <c r="C65">
-        <v>-0.3444521606377024</v>
+        <v>-0.3406253491262125</v>
       </c>
       <c r="D65">
-        <v>0.02935872928402136</v>
+        <v>0.03039433601186834</v>
       </c>
       <c r="E65">
-        <v>0.002229771120436585</v>
+        <v>0.00223412278321436</v>
       </c>
       <c r="F65">
-        <v>-0.3627850913246804</v>
+        <v>0.07184267194340294</v>
       </c>
       <c r="G65">
         <v>139</v>
       </c>
       <c r="H65">
-        <v>-457.2070410758249</v>
+        <v>-457.2070410746672</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
@@ -2426,25 +2426,25 @@
         <v>28</v>
       </c>
       <c r="B66">
-        <v>-0.09431634508414943</v>
+        <v>-0.09426321253229708</v>
       </c>
       <c r="C66">
-        <v>-0.3367598211654586</v>
+        <v>-0.3365842159769582</v>
       </c>
       <c r="D66">
-        <v>0.031330467246333</v>
+        <v>0.03130840349321987</v>
       </c>
       <c r="E66">
-        <v>0.002502076967801301</v>
+        <v>0.002487027396988124</v>
       </c>
       <c r="F66">
-        <v>-0.3312623254391547</v>
+        <v>0.07782303321022516</v>
       </c>
       <c r="G66">
         <v>138</v>
       </c>
       <c r="H66">
-        <v>-276.9559158058523</v>
+        <v>-277.1531144479408</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
@@ -2455,25 +2455,25 @@
         <v>29</v>
       </c>
       <c r="B67">
-        <v>-0.09495751940949815</v>
+        <v>-0.09353206262305735</v>
       </c>
       <c r="C67">
-        <v>-0.3549920595837177</v>
+        <v>-0.3503575526192904</v>
       </c>
       <c r="D67">
-        <v>0.03144299273152291</v>
+        <v>0.03103736988732635</v>
       </c>
       <c r="E67">
-        <v>0.002208632532053704</v>
+        <v>0.002380620501238688</v>
       </c>
       <c r="F67">
-        <v>-0.3394094183078179</v>
+        <v>0.07507427457679036</v>
       </c>
       <c r="G67">
         <v>138</v>
       </c>
       <c r="H67">
-        <v>-375.9774315374129</v>
+        <v>-375.9774315361713</v>
       </c>
       <c r="I67" t="s">
         <v>52</v>
@@ -2484,25 +2484,25 @@
         <v>30</v>
       </c>
       <c r="B68">
-        <v>-0.09237951988614568</v>
+        <v>-0.09243785861805609</v>
       </c>
       <c r="C68">
-        <v>-0.3260968551824058</v>
+        <v>-0.3254183348345213</v>
       </c>
       <c r="D68">
-        <v>0.03074793902174363</v>
+        <v>0.03074272239267235</v>
       </c>
       <c r="E68">
-        <v>0.00263875462692452</v>
+        <v>0.002564295299328651</v>
       </c>
       <c r="F68">
-        <v>-0.3330930821330714</v>
+        <v>0.08176838716637784</v>
       </c>
       <c r="G68">
         <v>308</v>
       </c>
       <c r="H68">
-        <v>-246.8536239637366</v>
+        <v>-246.8536239754989</v>
       </c>
       <c r="I68" t="s">
         <v>52</v>
@@ -2513,25 +2513,25 @@
         <v>31</v>
       </c>
       <c r="B69">
-        <v>-0.09318596977383331</v>
+        <v>-0.09386109235490769</v>
       </c>
       <c r="C69">
-        <v>-0.3413354170480069</v>
+        <v>-0.3441551024709374</v>
       </c>
       <c r="D69">
-        <v>0.03108795510610488</v>
+        <v>0.03128579666106101</v>
       </c>
       <c r="E69">
-        <v>0.00288303342774677</v>
+        <v>0.002819287211300142</v>
       </c>
       <c r="F69">
-        <v>-0.3215922997523497</v>
+        <v>0.08849941617660885</v>
       </c>
       <c r="G69">
         <v>138</v>
       </c>
       <c r="H69">
-        <v>-323.7481969625437</v>
+        <v>-323.748196962236</v>
       </c>
       <c r="I69" t="s">
         <v>52</v>
@@ -2542,25 +2542,25 @@
         <v>32</v>
       </c>
       <c r="B70">
-        <v>-0.09077209238501871</v>
+        <v>-0.09086076075038763</v>
       </c>
       <c r="C70">
-        <v>-0.3247208712196779</v>
+        <v>-0.3251346385606144</v>
       </c>
       <c r="D70">
-        <v>0.03016275288332108</v>
+        <v>0.03019027048883254</v>
       </c>
       <c r="E70">
-        <v>0.002437821017976476</v>
+        <v>0.002434188446147251</v>
       </c>
       <c r="F70">
-        <v>-0.3462170521151234</v>
+        <v>0.07895510491874642</v>
       </c>
       <c r="G70">
         <v>138</v>
       </c>
       <c r="H70">
-        <v>-263.5523419341554</v>
+        <v>-263.4337641993058</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
@@ -2571,25 +2571,25 @@
         <v>33</v>
       </c>
       <c r="B71">
-        <v>-0.09064788298086468</v>
+        <v>-0.08970389036995419</v>
       </c>
       <c r="C71">
-        <v>-0.3079589615930346</v>
+        <v>-0.3018518973243703</v>
       </c>
       <c r="D71">
-        <v>0.03011822239447349</v>
+        <v>0.02982956494486213</v>
       </c>
       <c r="E71">
-        <v>0.002424420866884231</v>
+        <v>0.002476394901589648</v>
       </c>
       <c r="F71">
-        <v>-0.347173860431792</v>
+        <v>0.08132476735405221</v>
       </c>
       <c r="G71">
         <v>308</v>
       </c>
       <c r="H71">
-        <v>-246.8536239638594</v>
+        <v>-246.8536239642999</v>
       </c>
       <c r="I71" t="s">
         <v>52</v>
@@ -2600,25 +2600,25 @@
         <v>34</v>
       </c>
       <c r="B72">
-        <v>-0.0834060795618724</v>
+        <v>-0.08342334227955617</v>
       </c>
       <c r="C72">
-        <v>-0.2974549505267716</v>
+        <v>-0.29741605473921</v>
       </c>
       <c r="D72">
-        <v>0.02762289212729263</v>
+        <v>0.02763527759173639</v>
       </c>
       <c r="E72">
-        <v>0.001955074079675884</v>
+        <v>0.001976085324343066</v>
       </c>
       <c r="F72">
-        <v>-0.3955272414956861</v>
+        <v>0.06967807165225341</v>
       </c>
       <c r="G72">
         <v>365</v>
       </c>
       <c r="H72">
-        <v>-284.6933246423744</v>
+        <v>-283.1999114901818</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
@@ -2629,25 +2629,25 @@
         <v>35</v>
       </c>
       <c r="B73">
-        <v>-0.09955582993825796</v>
+        <v>-0.09679201252629344</v>
       </c>
       <c r="C73">
-        <v>-0.3625511882823937</v>
+        <v>-0.3439670133297585</v>
       </c>
       <c r="D73">
-        <v>0.03310741704361209</v>
+        <v>0.03227439577794305</v>
       </c>
       <c r="E73">
-        <v>0.002753779783682987</v>
+        <v>0.002943367968752404</v>
       </c>
       <c r="F73">
-        <v>-0.3058801176755583</v>
+        <v>0.08963314190232782</v>
       </c>
       <c r="G73">
         <v>308</v>
       </c>
       <c r="H73">
-        <v>-310.3861214035792</v>
+        <v>-310.3861213425519</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
@@ -2658,25 +2658,25 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>-0.09213121910980182</v>
+        <v>-0.09248520019105011</v>
       </c>
       <c r="C74">
-        <v>-0.3443649508411032</v>
+        <v>-0.3448555919208177</v>
       </c>
       <c r="D74">
-        <v>0.03044259250051142</v>
+        <v>0.03055564067966836</v>
       </c>
       <c r="E74">
-        <v>0.001943463718780539</v>
+        <v>0.001938827772916508</v>
       </c>
       <c r="F74">
-        <v>-0.359273497681006</v>
+        <v>0.0617992376771482</v>
       </c>
       <c r="G74">
         <v>142</v>
       </c>
       <c r="H74">
-        <v>-255.7456999459482</v>
+        <v>-255.7456999467516</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
@@ -2687,25 +2687,25 @@
         <v>37</v>
       </c>
       <c r="B75">
-        <v>-0.1016354790449725</v>
+        <v>-0.1016246450707289</v>
       </c>
       <c r="C75">
-        <v>-0.3953289749315381</v>
+        <v>-0.3950439358648938</v>
       </c>
       <c r="D75">
-        <v>0.0334250914598004</v>
+        <v>0.03342068595893882</v>
       </c>
       <c r="E75">
-        <v>0.001655818420716577</v>
+        <v>0.001653038373873047</v>
       </c>
       <c r="F75">
-        <v>-0.3358214291709613</v>
+        <v>0.04795011998454463</v>
       </c>
       <c r="G75">
         <v>305</v>
       </c>
       <c r="H75">
-        <v>-417.4148417472335</v>
+        <v>-417.4148417470666</v>
       </c>
       <c r="I75" t="s">
         <v>52</v>
@@ -2716,25 +2716,25 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>-0.09579517447035035</v>
+        <v>-0.09570919822568758</v>
       </c>
       <c r="C76">
-        <v>-0.3416841181034535</v>
+        <v>-0.341537987901453</v>
       </c>
       <c r="D76">
-        <v>0.03176496878812564</v>
+        <v>0.03173350114603218</v>
       </c>
       <c r="E76">
-        <v>0.002365958283127583</v>
+        <v>0.002354692203594337</v>
       </c>
       <c r="F76">
-        <v>-0.3310162900496809</v>
+        <v>0.07261032184298696</v>
       </c>
       <c r="G76">
         <v>169</v>
       </c>
       <c r="H76">
-        <v>-275.7541167745663</v>
+        <v>-275.7541167745343</v>
       </c>
       <c r="I76" t="s">
         <v>52</v>
@@ -2745,25 +2745,25 @@
         <v>39</v>
       </c>
       <c r="B77">
-        <v>-0.09667347574063989</v>
+        <v>-0.09852313378415678</v>
       </c>
       <c r="C77">
-        <v>-0.3356582372160692</v>
+        <v>-0.3437867910082887</v>
       </c>
       <c r="D77">
-        <v>0.03197054824667167</v>
+        <v>0.03262602201794344</v>
       </c>
       <c r="E77">
-        <v>0.00212294529712169</v>
+        <v>0.002298853477434486</v>
       </c>
       <c r="F77">
-        <v>-0.3364889155103901</v>
+        <v>0.06891250805941999</v>
       </c>
       <c r="G77">
         <v>308</v>
       </c>
       <c r="H77">
-        <v>-271.5011984485138</v>
+        <v>-271.501198449597</v>
       </c>
       <c r="I77" t="s">
         <v>52</v>
@@ -2774,25 +2774,25 @@
         <v>40</v>
       </c>
       <c r="B78">
-        <v>-0.1022627352662969</v>
+        <v>-0.1022660113354914</v>
       </c>
       <c r="C78">
-        <v>-0.4014010933322384</v>
+        <v>-0.4014016950446683</v>
       </c>
       <c r="D78">
-        <v>0.03375736662929963</v>
+        <v>0.03375841027497567</v>
       </c>
       <c r="E78">
-        <v>0.002055369662716091</v>
+        <v>0.002055318701105879</v>
       </c>
       <c r="F78">
-        <v>-0.3206799529441063</v>
+        <v>0.05938686723100379</v>
       </c>
       <c r="G78">
         <v>305</v>
       </c>
       <c r="H78">
-        <v>-325.1544942536376</v>
+        <v>-325.1544942515938</v>
       </c>
       <c r="I78" t="s">
         <v>52</v>
@@ -2803,25 +2803,25 @@
         <v>41</v>
       </c>
       <c r="B79">
-        <v>-0.09433748118209451</v>
+        <v>-0.09433786498564245</v>
       </c>
       <c r="C79">
-        <v>-0.3264336165335503</v>
+        <v>-0.326441895509796</v>
       </c>
       <c r="D79">
-        <v>0.03117838258154924</v>
+        <v>0.03117851407213024</v>
       </c>
       <c r="E79">
-        <v>0.002010963925468803</v>
+        <v>0.002010986458362206</v>
       </c>
       <c r="F79">
-        <v>-0.3486299024979097</v>
+        <v>0.0628790064096892</v>
       </c>
       <c r="G79">
         <v>308</v>
       </c>
       <c r="H79">
-        <v>-262.0455214202223</v>
+        <v>-262.0455214233787</v>
       </c>
       <c r="I79" t="s">
         <v>52</v>
@@ -2832,25 +2832,25 @@
         <v>42</v>
       </c>
       <c r="B80">
-        <v>-0.06722171084871464</v>
+        <v>-0.06722171084886941</v>
       </c>
       <c r="C80">
-        <v>-0.217294710991555</v>
+        <v>-0.2172947109920706</v>
       </c>
       <c r="D80">
-        <v>0.02219486908318702</v>
+        <v>0.02219486908324268</v>
       </c>
       <c r="E80">
-        <v>0.001365590623315098</v>
+        <v>0.001365590623332207</v>
       </c>
       <c r="F80">
-        <v>-0.5188176482791069</v>
+        <v>0.05925144889225583</v>
       </c>
       <c r="G80">
         <v>197</v>
       </c>
       <c r="H80">
-        <v>-234.6338967761461</v>
+        <v>-234.6338967761447</v>
       </c>
       <c r="I80" t="s">
         <v>52</v>
@@ -2861,25 +2861,25 @@
         <v>43</v>
       </c>
       <c r="B81">
-        <v>-0.09627934026357643</v>
+        <v>-0.09627905996669328</v>
       </c>
       <c r="C81">
-        <v>-0.3295390602482801</v>
+        <v>-0.3295289501966469</v>
       </c>
       <c r="D81">
-        <v>0.0318919298752987</v>
+        <v>0.03189176378582764</v>
       </c>
       <c r="E81">
-        <v>0.002274131743110185</v>
+        <v>0.00227389878494404</v>
       </c>
       <c r="F81">
-        <v>-0.3325778246496698</v>
+        <v>0.06971663052878703</v>
       </c>
       <c r="G81">
         <v>308</v>
       </c>
       <c r="H81">
-        <v>-366.1069838599533</v>
+        <v>-366.1069838749738</v>
       </c>
       <c r="I81" t="s">
         <v>52</v>
@@ -2890,25 +2890,25 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>-0.09369043485037742</v>
+        <v>-0.09367406331389261</v>
       </c>
       <c r="C82">
-        <v>-0.3229372544410975</v>
+        <v>-0.3229176068242607</v>
       </c>
       <c r="D82">
-        <v>0.03102959699441244</v>
+        <v>0.03102752389519752</v>
       </c>
       <c r="E82">
-        <v>0.00219822822912343</v>
+        <v>0.00220819340744059</v>
       </c>
       <c r="F82">
-        <v>-0.3442665458309697</v>
+        <v>0.06954086773254936</v>
       </c>
       <c r="G82">
         <v>308</v>
       </c>
       <c r="H82">
-        <v>-380.7915960804169</v>
+        <v>-380.767794986131</v>
       </c>
       <c r="I82" t="s">
         <v>52</v>
@@ -2919,25 +2919,25 @@
         <v>45</v>
       </c>
       <c r="B83">
-        <v>-0.09732929253510048</v>
+        <v>-0.09742945513529677</v>
       </c>
       <c r="C83">
-        <v>-0.3422791297810073</v>
+        <v>-0.3421594503824566</v>
       </c>
       <c r="D83">
-        <v>0.03222989351880188</v>
+        <v>0.03226853217107174</v>
       </c>
       <c r="E83">
-        <v>0.002268565641049743</v>
+        <v>0.002287805452364477</v>
       </c>
       <c r="F83">
-        <v>-0.329263103450104</v>
+        <v>0.06933358382486426</v>
       </c>
       <c r="G83">
         <v>308</v>
       </c>
       <c r="H83">
-        <v>-266.6006412484123</v>
+        <v>-266.6006412484591</v>
       </c>
       <c r="I83" t="s">
         <v>52</v>
@@ -2948,25 +2948,25 @@
         <v>46</v>
       </c>
       <c r="B84">
-        <v>-0.09308354688834397</v>
+        <v>-0.09573606129497259</v>
       </c>
       <c r="C84">
-        <v>-0.330594731837309</v>
+        <v>-0.3277895427075599</v>
       </c>
       <c r="D84">
-        <v>0.03084488286855545</v>
+        <v>0.0317473489077499</v>
       </c>
       <c r="E84">
-        <v>0.002234306632028221</v>
+        <v>0.002370621934937599</v>
       </c>
       <c r="F84">
-        <v>-0.3451585087308591</v>
+        <v>0.07308041592711034</v>
       </c>
       <c r="G84">
         <v>135</v>
       </c>
       <c r="H84">
-        <v>-295.1051424671572</v>
+        <v>-296.4259702043578</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
@@ -2977,25 +2977,25 @@
         <v>47</v>
       </c>
       <c r="B85">
-        <v>-0.09272379162735178</v>
+        <v>-0.09304198378026629</v>
       </c>
       <c r="C85">
-        <v>-0.3296256178010669</v>
+        <v>-0.3351556156998961</v>
       </c>
       <c r="D85">
-        <v>0.03077612211733707</v>
+        <v>0.03088930453771999</v>
       </c>
       <c r="E85">
-        <v>0.00238157519820889</v>
+        <v>0.002413143017252187</v>
       </c>
       <c r="F85">
-        <v>-0.3411445134861064</v>
+        <v>0.07648701000020745</v>
       </c>
       <c r="G85">
         <v>138</v>
       </c>
       <c r="H85">
-        <v>-270.7419219426413</v>
+        <v>-270.7419219432518</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
@@ -3006,25 +3006,25 @@
         <v>48</v>
       </c>
       <c r="B86">
-        <v>-0.1002480080027441</v>
+        <v>-0.1003101212088227</v>
       </c>
       <c r="C86">
-        <v>-0.3787911735863064</v>
+        <v>-0.37923989947847</v>
       </c>
       <c r="D86">
-        <v>0.03301547635557499</v>
+        <v>0.03303647486579703</v>
       </c>
       <c r="E86">
-        <v>0.001777483634773298</v>
+        <v>0.0017802607033644</v>
       </c>
       <c r="F86">
-        <v>-0.3363027887455775</v>
+        <v>0.05235874100414631</v>
       </c>
       <c r="G86">
         <v>305</v>
       </c>
       <c r="H86">
-        <v>-414.6588876566876</v>
+        <v>-414.6588876570558</v>
       </c>
       <c r="I86" t="s">
         <v>52</v>
@@ -3035,25 +3035,25 @@
         <v>49</v>
       </c>
       <c r="B87">
-        <v>-0.09345983887319209</v>
+        <v>-0.09397172756399652</v>
       </c>
       <c r="C87">
-        <v>-0.3039595101965676</v>
+        <v>-0.3034557705587582</v>
       </c>
       <c r="D87">
-        <v>0.03084001296238299</v>
+        <v>0.03101399749206474</v>
       </c>
       <c r="E87">
-        <v>0.001842965505797919</v>
+        <v>0.001868729429389586</v>
       </c>
       <c r="F87">
-        <v>-0.3579024079069663</v>
+        <v>0.05862568853559272</v>
       </c>
       <c r="G87">
         <v>229</v>
       </c>
       <c r="H87">
-        <v>-397.9752970321281</v>
+        <v>-397.9752970321191</v>
       </c>
       <c r="I87" t="s">
         <v>52</v>
@@ -3064,25 +3064,25 @@
         <v>50</v>
       </c>
       <c r="B88">
-        <v>-0.09026302303157696</v>
+        <v>-0.09026297862220156</v>
       </c>
       <c r="C88">
-        <v>-0.329927363178151</v>
+        <v>-0.3299441151819354</v>
       </c>
       <c r="D88">
-        <v>0.0299000363647077</v>
+        <v>0.0299000571656586</v>
       </c>
       <c r="E88">
-        <v>0.002135035298235241</v>
+        <v>0.002135143987381148</v>
       </c>
       <c r="F88">
-        <v>-0.3593856868804731</v>
+        <v>0.06971998426809983</v>
       </c>
       <c r="G88">
         <v>308</v>
       </c>
       <c r="H88">
-        <v>-348.1230343580993</v>
+        <v>-348.1230343901482</v>
       </c>
       <c r="I88" t="s">
         <v>52</v>
@@ -3096,7 +3096,7 @@
         <v>-0.1056602560581522</v>
       </c>
       <c r="C89">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D89">
         <v>0.03420942111926081</v>
@@ -3105,7 +3105,7 @@
         <v>5.480225988700818E-05</v>
       </c>
       <c r="F89">
-        <v>-0.3749223963865476</v>
+        <v>0.0001253978456960338</v>
       </c>
       <c r="G89">
         <v>355</v>
@@ -3134,7 +3134,7 @@
         <v>0.000854723726180679</v>
       </c>
       <c r="F90">
-        <v>-0.3387435726923984</v>
+        <v>0.02265278352969748</v>
       </c>
       <c r="G90">
         <v>126</v>
@@ -3154,7 +3154,7 @@
         <v>-0.1185106730891674</v>
       </c>
       <c r="C91">
-        <v>-0.1895983296738447</v>
+        <v>-0.1895983296738446</v>
       </c>
       <c r="D91">
         <v>0.03911858818238211</v>
@@ -3163,7 +3163,7 @@
         <v>0.002374851883704179</v>
       </c>
       <c r="F91">
-        <v>-0.2685635911048596</v>
+        <v>0.05941777348127433</v>
       </c>
       <c r="G91">
         <v>92</v>
@@ -3192,7 +3192,7 @@
         <v>0.002447587320499301</v>
       </c>
       <c r="F92">
-        <v>-0.2665874350564225</v>
+        <v>0.06125029560094346</v>
       </c>
       <c r="G92">
         <v>92</v>
@@ -3212,7 +3212,7 @@
         <v>-0.1220039137014972</v>
       </c>
       <c r="C93">
-        <v>-0.1908990717378033</v>
+        <v>-0.1908990717378032</v>
       </c>
       <c r="D93">
         <v>0.04026516824777547</v>
@@ -3221,7 +3221,7 @@
         <v>0.002424810031061027</v>
       </c>
       <c r="F93">
-        <v>-0.2596753181189916</v>
+        <v>0.05896653763556682</v>
       </c>
       <c r="G93">
         <v>92</v>
@@ -3250,7 +3250,7 @@
         <v>0.002405874804172541</v>
       </c>
       <c r="F94">
-        <v>-0.2597814135321658</v>
+        <v>0.05841438775178454</v>
       </c>
       <c r="G94">
         <v>92</v>
@@ -3270,7 +3270,7 @@
         <v>-0.1185106730891674</v>
       </c>
       <c r="C95">
-        <v>-0.1895983296738447</v>
+        <v>-0.1895983296738446</v>
       </c>
       <c r="D95">
         <v>0.03911858818238211</v>
@@ -3279,7 +3279,7 @@
         <v>0.002374851883704179</v>
       </c>
       <c r="F95">
-        <v>-0.2685635911048596</v>
+        <v>0.05941777348127433</v>
       </c>
       <c r="G95">
         <v>92</v>
@@ -3299,7 +3299,7 @@
         <v>-0.1186466914163132</v>
       </c>
       <c r="C96">
-        <v>-0.1866439441508566</v>
+        <v>-0.1866439441508565</v>
       </c>
       <c r="D96">
         <v>0.0390810892746437</v>
@@ -3308,7 +3308,7 @@
         <v>0.002122953220419144</v>
       </c>
       <c r="F96">
-        <v>-0.2752668204536828</v>
+        <v>0.05302924730881607</v>
       </c>
       <c r="G96">
         <v>92</v>
@@ -3337,7 +3337,7 @@
         <v>0.002468626366599668</v>
       </c>
       <c r="F97">
-        <v>-0.2782586471458728</v>
+        <v>0.0646232816724487</v>
       </c>
       <c r="G97">
         <v>126</v>
@@ -3357,7 +3357,7 @@
         <v>-0.1208641226045707</v>
       </c>
       <c r="C98">
-        <v>-0.1797327882634249</v>
+        <v>-0.1797327882634248</v>
       </c>
       <c r="D98">
         <v>0.03975312404667958</v>
@@ -3366,7 +3366,7 @@
         <v>0.001982265595575066</v>
       </c>
       <c r="F98">
-        <v>-0.2741524111801743</v>
+        <v>0.04859374375534827</v>
       </c>
       <c r="G98">
         <v>92</v>
@@ -3395,7 +3395,7 @@
         <v>0.001914666259007896</v>
       </c>
       <c r="F99">
-        <v>-0.2810135097932718</v>
+        <v>0.04777053827050193</v>
       </c>
       <c r="G99">
         <v>92</v>
@@ -3415,7 +3415,7 @@
         <v>-0.1207031617226035</v>
       </c>
       <c r="C100">
-        <v>-0.1779426656437228</v>
+        <v>-0.1779426656437229</v>
       </c>
       <c r="D100">
         <v>0.03927559970291331</v>
@@ -3424,7 +3424,7 @@
         <v>0.0006675653234541457</v>
       </c>
       <c r="F100">
-        <v>-0.3109593532331671</v>
+        <v>0.01571084479792757</v>
       </c>
       <c r="G100">
         <v>92</v>
@@ -3444,7 +3444,7 @@
         <v>-0.110464549477063</v>
       </c>
       <c r="C101">
-        <v>-0.1692526945410492</v>
+        <v>-0.1692526945410491</v>
       </c>
       <c r="D101">
         <v>0.03638281591808461</v>
@@ -3453,7 +3453,7 @@
         <v>0.001966803662358553</v>
       </c>
       <c r="F101">
-        <v>-0.2999733931296227</v>
+        <v>0.05267022746389151</v>
       </c>
       <c r="G101">
         <v>158</v>
@@ -3482,7 +3482,7 @@
         <v>0.001570490404506706</v>
       </c>
       <c r="F102">
-        <v>-0.2905137629982361</v>
+        <v>0.03904218309149689</v>
       </c>
       <c r="G102">
         <v>158</v>
@@ -3511,7 +3511,7 @@
         <v>0.001939998244935434</v>
       </c>
       <c r="F103">
-        <v>-0.3036377794833268</v>
+        <v>0.05243907610299715</v>
       </c>
       <c r="G103">
         <v>158</v>
@@ -3540,7 +3540,7 @@
         <v>0.002183743841115492</v>
       </c>
       <c r="F104">
-        <v>-0.2695828384641228</v>
+        <v>0.05376142637747957</v>
       </c>
       <c r="G104">
         <v>92</v>
@@ -3569,7 +3569,7 @@
         <v>0.001617101248370842</v>
       </c>
       <c r="F105">
-        <v>-0.3129851926393249</v>
+        <v>0.04353137515963966</v>
       </c>
       <c r="G105">
         <v>158</v>
@@ -3598,7 +3598,7 @@
         <v>0.002000673204344869</v>
       </c>
       <c r="F106">
-        <v>-0.2923004190634338</v>
+        <v>0.05239268584528178</v>
       </c>
       <c r="G106">
         <v>158</v>
@@ -3627,7 +3627,7 @@
         <v>0.001850736661327541</v>
       </c>
       <c r="F107">
-        <v>-0.3098401952258328</v>
+        <v>0.0505697787027357</v>
       </c>
       <c r="G107">
         <v>141</v>
@@ -3656,7 +3656,7 @@
         <v>0.001666731100963103</v>
       </c>
       <c r="F108">
-        <v>-0.2930146194180703</v>
+        <v>0.0422309459026568</v>
       </c>
       <c r="G108">
         <v>158</v>
@@ -3676,7 +3676,7 @@
         <v>-0.1146566352641067</v>
       </c>
       <c r="C109">
-        <v>-0.1519517804828201</v>
+        <v>-0.15195178048282</v>
       </c>
       <c r="D109">
         <v>0.037885949036366</v>
@@ -3685,7 +3685,7 @@
         <v>0.002419748397898841</v>
       </c>
       <c r="F109">
-        <v>-0.2761164039200061</v>
+        <v>0.06253600572202934</v>
       </c>
       <c r="G109">
         <v>158</v>
@@ -3714,7 +3714,7 @@
         <v>0.001667582756864271</v>
       </c>
       <c r="F110">
-        <v>-0.3142749389431684</v>
+        <v>0.04532241499523865</v>
       </c>
       <c r="G110">
         <v>141</v>
@@ -3734,7 +3734,7 @@
         <v>-0.1181434013793534</v>
       </c>
       <c r="C111">
-        <v>-0.1771892602816553</v>
+        <v>-0.1771892602816552</v>
       </c>
       <c r="D111">
         <v>0.03889728343032464</v>
@@ -3743,7 +3743,7 @@
         <v>0.002058240499201777</v>
       </c>
       <c r="F111">
-        <v>-0.2782312529640001</v>
+        <v>0.05161615028005764</v>
       </c>
       <c r="G111">
         <v>92</v>
@@ -3772,7 +3772,7 @@
         <v>0.001985343935077351</v>
       </c>
       <c r="F112">
-        <v>-0.278147899759816</v>
+        <v>0.04939446425403615</v>
       </c>
       <c r="G112">
         <v>92</v>
@@ -3801,7 +3801,7 @@
         <v>0.002249098039893436</v>
       </c>
       <c r="F113">
-        <v>-0.2719918097674102</v>
+        <v>0.05624724965300296</v>
       </c>
       <c r="G113">
         <v>92</v>
@@ -3830,7 +3830,7 @@
         <v>0.001262283431552857</v>
       </c>
       <c r="F114">
-        <v>-0.3169955458608498</v>
+        <v>0.03306187571371363</v>
       </c>
       <c r="G114">
         <v>158</v>
@@ -3859,7 +3859,7 @@
         <v>0.002032848766914412</v>
       </c>
       <c r="F115">
-        <v>-0.2795121431775299</v>
+        <v>0.05107814028932778</v>
       </c>
       <c r="G115">
         <v>92</v>
@@ -3888,7 +3888,7 @@
         <v>0.002148831725171481</v>
       </c>
       <c r="F116">
-        <v>-0.2932270856020277</v>
+        <v>0.05733253026383947</v>
       </c>
       <c r="G116">
         <v>126</v>
@@ -3917,7 +3917,7 @@
         <v>0.002129572160661224</v>
       </c>
       <c r="F117">
-        <v>-0.2730899772945084</v>
+        <v>0.05281040337638505</v>
       </c>
       <c r="G117">
         <v>92</v>
@@ -3937,7 +3937,7 @@
         <v>-0.109662497695728</v>
       </c>
       <c r="C118">
-        <v>-0.1629704365460175</v>
+        <v>-0.1629704365460174</v>
       </c>
       <c r="D118">
         <v>0.03636361826168338</v>
@@ -3946,7 +3946,7 @@
         <v>0.002709530225679861</v>
       </c>
       <c r="F118">
-        <v>-0.2797067691680836</v>
+        <v>0.07312302462226494</v>
       </c>
       <c r="G118">
         <v>158</v>
@@ -3975,7 +3975,7 @@
         <v>0.002443535445838297</v>
       </c>
       <c r="F119">
-        <v>-0.2688565707749006</v>
+        <v>0.0616432897125502</v>
       </c>
       <c r="G119">
         <v>126</v>
@@ -4004,7 +4004,7 @@
         <v>0.002549307017706855</v>
       </c>
       <c r="F120">
-        <v>-0.2760996306683318</v>
+        <v>0.06677875489343676</v>
       </c>
       <c r="G120">
         <v>126</v>
@@ -4024,7 +4024,7 @@
         <v>-0.1123236797790058</v>
       </c>
       <c r="C121">
-        <v>-0.1363051306779679</v>
+        <v>-0.136305130677968</v>
       </c>
       <c r="D121">
         <v>0.03719755224833556</v>
@@ -4033,7 +4033,7 @@
         <v>0.00262539788916603</v>
       </c>
       <c r="F121">
-        <v>-0.2756977783722232</v>
+        <v>0.06922190470490168</v>
       </c>
       <c r="G121">
         <v>126</v>
@@ -4062,7 +4062,7 @@
         <v>0.002439160245522415</v>
       </c>
       <c r="F122">
-        <v>-0.2705438668061859</v>
+        <v>0.06189079704621913</v>
       </c>
       <c r="G122">
         <v>126</v>
@@ -4082,7 +4082,7 @@
         <v>-0.1123236797790058</v>
       </c>
       <c r="C123">
-        <v>-0.1363051306779679</v>
+        <v>-0.136305130677968</v>
       </c>
       <c r="D123">
         <v>0.03719755224833556</v>
@@ -4091,7 +4091,7 @@
         <v>0.00262539788916603</v>
       </c>
       <c r="F123">
-        <v>-0.2756977783722232</v>
+        <v>0.06922190470490168</v>
       </c>
       <c r="G123">
         <v>126</v>
@@ -4120,7 +4120,7 @@
         <v>0.001284936105548871</v>
       </c>
       <c r="F124">
-        <v>-0.2983919787375939</v>
+        <v>0.03176528397427792</v>
       </c>
       <c r="G124">
         <v>122</v>
@@ -4140,7 +4140,7 @@
         <v>-0.1184425451968064</v>
       </c>
       <c r="C125">
-        <v>-0.1585650517356499</v>
+        <v>-0.15856505173565</v>
       </c>
       <c r="D125">
         <v>0.03896229387456984</v>
@@ -4149,7 +4149,7 @@
         <v>0.001959994056793557</v>
       </c>
       <c r="F125">
-        <v>-0.2802885883279851</v>
+        <v>0.04900844880346497</v>
       </c>
       <c r="G125">
         <v>92</v>
@@ -4178,7 +4178,7 @@
         <v>0.002352825009838263</v>
       </c>
       <c r="F126">
-        <v>-0.2683028212100639</v>
+        <v>0.05867452828529634</v>
       </c>
       <c r="G126">
         <v>92</v>
@@ -4207,7 +4207,7 @@
         <v>0.00259237113575727</v>
       </c>
       <c r="F127">
-        <v>-0.2747288887815911</v>
+        <v>0.06787529299676147</v>
       </c>
       <c r="G127">
         <v>126</v>
@@ -4227,7 +4227,7 @@
         <v>-0.1108284994968872</v>
       </c>
       <c r="C128">
-        <v>-0.1467489815317507</v>
+        <v>-0.1467489815317508</v>
       </c>
       <c r="D128">
         <v>0.03641449971510465</v>
@@ -4236,7 +4236,7 @@
         <v>0.0017007639356678</v>
       </c>
       <c r="F128">
-        <v>-0.307018263513631</v>
+        <v>0.04531852631239458</v>
       </c>
       <c r="G128">
         <v>158</v>
@@ -4265,7 +4265,7 @@
         <v>0.001974948682622318</v>
       </c>
       <c r="F129">
-        <v>-0.300571038759747</v>
+        <v>0.05303906290104282</v>
       </c>
       <c r="G129">
         <v>158</v>
@@ -4285,7 +4285,7 @@
         <v>-0.1169958729831614</v>
       </c>
       <c r="C130">
-        <v>-0.1629043701399393</v>
+        <v>-0.1629043701399394</v>
       </c>
       <c r="D130">
         <v>0.03866633777858599</v>
@@ -4294,7 +4294,7 @@
         <v>0.002492093181422133</v>
       </c>
       <c r="F130">
-        <v>-0.2686726444842694</v>
+        <v>0.06314486578033705</v>
       </c>
       <c r="G130">
         <v>126</v>
@@ -4323,7 +4323,7 @@
         <v>0.000854723726180679</v>
       </c>
       <c r="F131">
-        <v>-0.3387435726923984</v>
+        <v>0.02265278352969748</v>
       </c>
       <c r="G131">
         <v>126</v>
@@ -4343,7 +4343,7 @@
         <v>-0.1127573758108367</v>
       </c>
       <c r="C132">
-        <v>-0.1500543599020278</v>
+        <v>-0.1500543599020277</v>
       </c>
       <c r="D132">
         <v>0.03720121619848651</v>
@@ -4352,7 +4352,7 @@
         <v>0.002203024314459751</v>
       </c>
       <c r="F132">
-        <v>-0.2870243820386576</v>
+        <v>0.05786132987692964</v>
       </c>
       <c r="G132">
         <v>126</v>
@@ -4372,7 +4372,7 @@
         <v>-0.1056602560581522</v>
       </c>
       <c r="C133">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D133">
         <v>0.03420942111926081</v>
@@ -4381,7 +4381,7 @@
         <v>5.480225988700818E-05</v>
       </c>
       <c r="F133">
-        <v>-0.3749223963865476</v>
+        <v>0.0001253978456960338</v>
       </c>
       <c r="G133">
         <v>355</v>
